--- a/data_cleaned_1.xlsx
+++ b/data_cleaned_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I543"/>
+  <dimension ref="A1:I544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22288,11 +22288,11 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>154835064</v>
+        <v>2.393612431018261e+17</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Đồng hồ Thông minh Trẻ em AMA Watch Q15 lắp SIM nghe gọi 2 chiều 3 màu Xanh Hồng Đen Hàng chinh hãng</t>
+          <t>Đồng hồ thông minh Samsung Galaxy Watch 6 dành cho nam 2023 có theo dõi  Amoled Luôn hiển thị nhịp tim &amp; theo dõi huyết áp Dây thép không gỉ</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -22301,26 +22301,26 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>371000</v>
+        <v>796868</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/154835064_7967125795428827099.jpg</t>
+          <t>Đồng_hồ_thông_minh/239361243101826085_9199338627928130607.avi</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4f/a0/c2/c978a931be8bc02a10e4d7058ea72210.jpg</t>
+          <t>https://img.lazcdn.com/g/p/dd15cd3a788bf146d858e79fb05dd32a.png_200x200q80.avif</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q15-lap-sim-nghe-goi-2-chieu-3-mau-xanh-hong-den-hang-chinh-hang-p154835064.html?spid=154835066</t>
+          <t>https://www.lazada.vn/products/pdp-i3013676188.html</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>Lazada</t>
         </is>
       </c>
     </row>
@@ -22331,11 +22331,11 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>149797747</v>
+        <v>154835064</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đồng Hồ Thông Minh Trẻ em AMA Q12S Model mới nhất ra mắt tháng 12/2021 - Hàng nhập khẩu</t>
+          <t>Đồng hồ Thông minh Trẻ em AMA Watch Q15 lắp SIM nghe gọi 2 chiều 3 màu Xanh Hồng Đen Hàng chinh hãng</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -22344,21 +22344,21 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>562000</v>
+        <v>371000</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/149797747_4683621684182599073.jpg</t>
+          <t>Đồng_hồ_thông_minh/154835064_7967125795428827099.jpg</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6e/b8/a5/a8820ac9fb55d23011ea48b6e69e74fb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4f/a0/c2/c978a931be8bc02a10e4d7058ea72210.jpg</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-q12s-model-2021-hang-nhap-khau-p149797747.html?spid=151619450</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q15-lap-sim-nghe-goi-2-chieu-3-mau-xanh-hong-den-hang-chinh-hang-p154835064.html?spid=154835066</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -22374,11 +22374,11 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>207270188</v>
+        <v>149797747</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Đồng hồ Thông minh Mini có Rung Gắn sim Định vị GPS, Wifi Đo huyết áp Nhịp tim nhắc nhở Vận động gọi Video call AMA Watch FA91S - Hàng nhập khẩu</t>
+          <t xml:space="preserve"> Đồng Hồ Thông Minh Trẻ em AMA Q12S Model mới nhất ra mắt tháng 12/2021 - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -22387,21 +22387,21 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>1523870</v>
+        <v>562000</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/207270188_-6100385475971697174.jpg</t>
+          <t>Đồng_hồ_thông_minh/149797747_4683621684182599073.jpg</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4e/e3/0f/11c0588e2feb3dc5043b96a6adbba6eb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6e/b8/a5/a8820ac9fb55d23011ea48b6e69e74fb.jpg</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-hoc-sinh-sinh-vien-dinh-vi-wifi-goi-dien-thoai-video-call-ama-watch-fa91-hang-nhap-khau-p207270188.html?spid=208054739</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-q12s-model-2021-hang-nhap-khau-p149797747.html?spid=151619450</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -22417,11 +22417,11 @@
         </is>
       </c>
       <c r="B512" t="n">
-        <v>276295047</v>
+        <v>207270188</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Đồng Hồ Thông Minh Xiaomi Redmi Watch 5 ACTIVE – Hàng Chính Hãng</t>
+          <t>Đồng hồ Thông minh Mini có Rung Gắn sim Định vị GPS, Wifi Đo huyết áp Nhịp tim nhắc nhở Vận động gọi Video call AMA Watch FA91S - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -22430,21 +22430,21 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>715000</v>
+        <v>1523870</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276295047_4908797466075377767.jpg</t>
+          <t>Đồng_hồ_thông_minh/207270188_-6100385475971697174.jpg</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4a/62/9d/b83f4513fcfbfdbc3e35989eb2080281.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4e/e3/0f/11c0588e2feb3dc5043b96a6adbba6eb.jpg</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-xiaomi-redmi-watch-5-active-midnight-black-hang-chinh-hang-p276295047.html?spid=276295049</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-hoc-sinh-sinh-vien-dinh-vi-wifi-goi-dien-thoai-video-call-ama-watch-fa91-hang-nhap-khau-p207270188.html?spid=208054739</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -22460,11 +22460,11 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>276130067</v>
+        <v>276295047</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Vòng Đeo Tay Thông Minh Xiaomi Mi Band 10 - Bản Quốc Tế - Hàng Chính Hãng</t>
+          <t>Đồng Hồ Thông Minh Xiaomi Redmi Watch 5 ACTIVE – Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -22473,21 +22473,21 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1033050</v>
+        <v>715000</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276130067_-7228020809596367073.jpg</t>
+          <t>Đồng_hồ_thông_minh/276295047_4908797466075377767.jpg</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/80/f6/73/f8a7c3a0a56618abfe4652893c30b05d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4a/62/9d/b83f4513fcfbfdbc3e35989eb2080281.jpg</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-mi-band-9-ban-quoc-te-hang-chinh-hang-p276130067.html?spid=276130069</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-xiaomi-redmi-watch-5-active-midnight-black-hang-chinh-hang-p276295047.html?spid=276295049</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -22503,11 +22503,11 @@
         </is>
       </c>
       <c r="B514" t="n">
-        <v>275281412</v>
+        <v>276130067</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Đồng Hồ Thông Minh Trẻ Em MAI DUY Y85S, Lắp Sim Nghe Gọi - Định Vị Cảnh Báo Nguy Hiểm, Chống Nước  -Hàng Nhập Khẩu</t>
+          <t>Vòng Đeo Tay Thông Minh Xiaomi Mi Band 10 - Bản Quốc Tế - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -22516,21 +22516,21 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>325000</v>
+        <v>1033050</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/275281412_8288843787915995951.jpg</t>
+          <t>Đồng_hồ_thông_minh/276130067_-7228020809596367073.jpg</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/26/6e/13/2bf1e724903a941e9f1af13057fb0993.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/80/f6/73/f8a7c3a0a56618abfe4652893c30b05d.jpg</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-dinh-vi-tre-em-mai-duy-y85s-nghe-goi-nhan-tin-tu-xa-chong-nuoc-ip67-hang-nhap-khau-p275281412.html?spid=275281467</t>
+          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-mi-band-9-ban-quoc-te-hang-chinh-hang-p276130067.html?spid=276130069</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -22546,11 +22546,11 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>276664710</v>
+        <v>275281412</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Vòng Đeo Tay Thông Minh Xiaomi Smart Band 9 Active – Hàng Chính Hãng</t>
+          <t>Đồng Hồ Thông Minh Trẻ Em MAI DUY Y85S, Lắp Sim Nghe Gọi - Định Vị Cảnh Báo Nguy Hiểm, Chống Nước  -Hàng Nhập Khẩu</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -22559,21 +22559,21 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>525000</v>
+        <v>325000</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276664710_-9198799680277359363.jpg</t>
+          <t>Đồng_hồ_thông_minh/275281412_8288843787915995951.jpg</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/50/18/56affe593feb1d3babcccad756a143fb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/26/6e/13/2bf1e724903a941e9f1af13057fb0993.jpg</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-smart-band-9-active-hang-chinh-hang-p276664710.html?spid=276664712</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-dinh-vi-tre-em-mai-duy-y85s-nghe-goi-nhan-tin-tu-xa-chong-nuoc-ip67-hang-nhap-khau-p275281412.html?spid=275281467</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -22589,11 +22589,11 @@
         </is>
       </c>
       <c r="B516" t="n">
-        <v>276115570</v>
+        <v>276664710</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Apple Watch Series 10 GPS (Viền nhôm, dây cao su)</t>
+          <t>Vòng Đeo Tay Thông Minh Xiaomi Smart Band 9 Active – Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -22602,21 +22602,21 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>8760000</v>
+        <v>525000</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276115570_-6212342290080913237.jpg</t>
+          <t>Đồng_hồ_thông_minh/276664710_-9198799680277359363.jpg</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a8/a3/9a/e1bb7178418877ba332bd7c01b90b479.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/50/18/56affe593feb1d3babcccad756a143fb.jpg</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-watch-series-10-gps-vien-nhom-day-cao-su-p276115570.html?spid=276116452</t>
+          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-smart-band-9-active-hang-chinh-hang-p276664710.html?spid=276664712</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -22632,11 +22632,11 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>276115522</v>
+        <v>276115570</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Apple Watch SE 2024 GPS (Viền nhôm, dây cao su)</t>
+          <t>Apple Watch Series 10 GPS (Viền nhôm, dây cao su)</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -22645,21 +22645,21 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>6360000</v>
+        <v>8760000</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276115522_1369627001624235375.jpg</t>
+          <t>Đồng_hồ_thông_minh/276115570_-6212342290080913237.jpg</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/ec/7d/de5a49dc09126ff6153b16bbb82ee814.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a8/a3/9a/e1bb7178418877ba332bd7c01b90b479.jpg</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-watch-se-2024-gps-vien-nhom-day-cao-su-p276115522.html?spid=276115846</t>
+          <t>https://tiki.vn/apple-watch-series-10-gps-vien-nhom-day-cao-su-p276115570.html?spid=276116452</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -22675,11 +22675,11 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>273936761</v>
+        <v>276115522</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Đồng hồ Thông minh Trẻ em Học sinh Tiểu học THCS THPT Chống nước Lắp sim Định vị Kép Smart Watch AMA HW13 Hàng nhập khẩu</t>
+          <t>Apple Watch SE 2024 GPS (Viền nhôm, dây cao su)</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -22688,21 +22688,21 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>1096391</v>
+        <v>6360000</v>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/273936761_-8735126153505365997.jpg</t>
+          <t>Đồng_hồ_thông_minh/276115522_1369627001624235375.jpg</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/79/06/db/de657748b73e722d01b96d126297833e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/ec/7d/de5a49dc09126ff6153b16bbb82ee814.jpg</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-hoc-sinh-tieu-hoc-thcs-thpt-chong-nuoc-lap-sim-dinh-vi-kep-smart-watch-ama-hw13-hang-nhap-khau-p273936761.html?spid=273936763</t>
+          <t>https://tiki.vn/apple-watch-se-2024-gps-vien-nhom-day-cao-su-p276115522.html?spid=276115846</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -22718,11 +22718,11 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>273690198</v>
+        <v>273936761</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Đồng hồ Thông minh Lắp Sim Định vị GPS Google kết nối Wifi 4G Blueltooth xem được Video Youtube TikTok tải App FB Messenger Skype WhatsApp Viber Wechat Kakao Line Tele chơi Game AMA Smart watch TK Android 8.1 cho Trẻ em Người lớn Hàng nhập khẩu</t>
+          <t>Đồng hồ Thông minh Trẻ em Học sinh Tiểu học THCS THPT Chống nước Lắp sim Định vị Kép Smart Watch AMA HW13 Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -22731,21 +22731,21 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1620870</v>
+        <v>1096391</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/273690198_9168548247674116842.jpg</t>
+          <t>Đồng_hồ_thông_minh/273936761_-8735126153505365997.jpg</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/82/81/b64f1908940da2db9b94abff5939fad4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/79/06/db/de657748b73e722d01b96d126297833e.jpg</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-lap-sim-ket-noi-wifi-4g-blueltooth-dinh-vi-gps-google-xem-duoc-video-youtube-tiktok-tai-app-chat-za-lo-face-book-messenger-skype-whatsapp-viber-wechat-kakao-line-tele-choi-game-ama-smart-watch-tk-android-8-1-cho-tre-em-hang-nhap-khau-p273690198.html?spid=273690200</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-hoc-sinh-tieu-hoc-thcs-thpt-chong-nuoc-lap-sim-dinh-vi-kep-smart-watch-ama-hw13-hang-nhap-khau-p273936761.html?spid=273936763</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -22761,11 +22761,11 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>9.186353276265624e+18</v>
+        <v>273690198</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch Ultra LTE 47mm (2025) dây silicone</t>
+          <t>Đồng hồ Thông minh Lắp Sim Định vị GPS Google kết nối Wifi 4G Blueltooth xem được Video Youtube TikTok tải App FB Messenger Skype WhatsApp Viber Wechat Kakao Line Tele chơi Game AMA Smart watch TK Android 8.1 cho Trẻ em Người lớn Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -22774,26 +22774,26 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>16990000</v>
+        <v>1620870</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
+          <t>Đồng_hồ_thông_minh/273690198_9168548247674116842.jpg</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/82/81/b64f1908940da2db9b94abff5939fad4.jpg</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-lap-sim-ket-noi-wifi-4g-blueltooth-dinh-vi-gps-google-xem-duoc-video-youtube-tiktok-tai-app-chat-za-lo-face-book-messenger-skype-whatsapp-viber-wechat-kakao-line-tele-choi-game-ama-smart-watch-tk-android-8-1-cho-tre-em-hang-nhap-khau-p273690198.html?spid=273690200</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>TGDD</t>
+          <t>Tiki</t>
         </is>
       </c>
     </row>
@@ -22804,11 +22804,11 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>8.989072603909606e+18</v>
+        <v>9.186353276265624e+18</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 47mm dây silicone</t>
+          <t>Samsung Galaxy Watch Ultra LTE 47mm (2025) dây silicone</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -22817,21 +22817,21 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14420000</v>
+        <v>16990000</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
+          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -22847,11 +22847,11 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>2.067984039751481e+18</v>
+        <v>8.989072603909606e+18</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Amazfit Active 2 Square Sapphire 43.3mm dây daMẫu mới</t>
+          <t>Garmin Forerunner 570 47mm dây silicone</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -22860,21 +22860,21 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>3690000</v>
+        <v>14420000</v>
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
+          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -22890,11 +22890,11 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>4.510275253775064e+18</v>
+        <v>2.067984039751481e+18</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 42.4mm dây silicone</t>
+          <t>Amazfit Active 2 Square Sapphire 43.3mm dây daMẫu mới</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -22903,21 +22903,21 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>14420000</v>
+        <v>3690000</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
+          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -22933,11 +22933,11 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>9.186353276265624e+18</v>
+        <v>4.510275253775064e+18</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch Ultra LTE 47mm (2025) dây silicone</t>
+          <t>Garmin Forerunner 570 42.4mm dây silicone</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -22946,21 +22946,21 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>16990000</v>
+        <v>14420000</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
+          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -22976,11 +22976,11 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>5.366895306400635e+18</v>
+        <v>9.186353276265624e+18</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây cao su</t>
+          <t>Samsung Galaxy Watch Ultra LTE 47mm (2025) dây silicone</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -22989,21 +22989,21 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>8830000</v>
+        <v>16990000</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
+          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -23019,11 +23019,11 @@
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1.676033394735769e+18</v>
+        <v>5.366895306400635e+18</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch8 LTE 40mm dây siliconeMẫu mới</t>
+          <t>Huawei Watch 5 46mm dây cao su</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -23032,21 +23032,21 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>9990000</v>
+        <v>8830000</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
+          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -23062,11 +23062,11 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>1.65783369162941e+18</v>
+        <v>1.676033394735769e+18</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Garmin Venu X1 Sapphire 51.2mm dây nylonMẫu mới</t>
+          <t>Samsung Galaxy Watch8 LTE 40mm dây siliconeMẫu mới</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -23075,21 +23075,21 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21090000</v>
+        <v>9990000</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
+          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -23105,11 +23105,11 @@
         </is>
       </c>
       <c r="B528" t="n">
-        <v>8.989072603909606e+18</v>
+        <v>1.65783369162941e+18</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 47mm dây silicone</t>
+          <t>Garmin Venu X1 Sapphire 51.2mm dây nylonMẫu mới</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -23118,21 +23118,21 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>14420000</v>
+        <v>21090000</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
+          <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -23148,11 +23148,11 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>2.067984039751481e+18</v>
+        <v>8.989072603909606e+18</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Amazfit Active 2 Square Sapphire 43.3mm dây daMẫu mới</t>
+          <t>Garmin Forerunner 570 47mm dây silicone</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -23161,21 +23161,21 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3690000</v>
+        <v>14420000</v>
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
+          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -23191,11 +23191,11 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>4.510275253775064e+18</v>
+        <v>2.067984039751481e+18</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 42.4mm dây silicone</t>
+          <t>Amazfit Active 2 Square Sapphire 43.3mm dây daMẫu mới</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -23204,21 +23204,21 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>14420000</v>
+        <v>3690000</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
+          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -23234,11 +23234,11 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>6.907835202262853e+18</v>
+        <v>4.510275253775064e+18</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây compositeMẫu mới</t>
+          <t>Garmin Forerunner 570 42.4mm dây silicone</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -23247,21 +23247,21 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>9810000</v>
+        <v>14420000</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
+          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -23277,11 +23277,11 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>229765302</v>
+        <v>6.907835202262853e+18</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Đồng Hồ Thông Minh Trẻ Em AMA Watch Q12B Hàng nhập khẩu</t>
+          <t>Huawei Watch 5 46mm dây compositeMẫu mới</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -23290,26 +23290,26 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>195000</v>
+        <v>9810000</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/229765302_-3877597272443373168.jpg</t>
+          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/d3/4b/113da997583503fc0365000da880c475.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q12b-hang-nhap-khau-p229765302.html?spid=229765304</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
     </row>
@@ -23320,11 +23320,11 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>212142932</v>
+        <v>229765302</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Đồng hồ Thông minh gắn Sim nghe gọi Chống nước IP67 Gọi Video call Định vị GPS, WIfi dàn cho Trẻ em học sinh cấp 1 2 5 6 7 8 9 10 11 12 tuổi AMA Watch D32 Hàng nhập khẩu</t>
+          <t>Đồng Hồ Thông Minh Trẻ Em AMA Watch Q12B Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -23333,21 +23333,21 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1244510</v>
+        <v>195000</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/212142932_4862266102186728546.jpg</t>
+          <t>Đồng_hồ_thông_minh/229765302_-3877597272443373168.jpg</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/08/d0/5c2503b74acf53d8eeff0a6684aaa108.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/d3/4b/113da997583503fc0365000da880c475.jpg</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-trai-gai-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-chong-nuoc-ip67-goi-video-call-dinh-vi-gps-wifi-ama-watch-d32-hang-nhap-khau-p212142932.html?spid=212142936</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q12b-hang-nhap-khau-p229765302.html?spid=229765304</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -23363,11 +23363,11 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>198515846</v>
+        <v>212142932</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Đồng Hồ Định Vị Trẻ Em Wonlex KT18 - Hàng Chính Hãng</t>
+          <t>Đồng hồ Thông minh gắn Sim nghe gọi Chống nước IP67 Gọi Video call Định vị GPS, WIfi dàn cho Trẻ em học sinh cấp 1 2 5 6 7 8 9 10 11 12 tuổi AMA Watch D32 Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -23376,21 +23376,21 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1833300</v>
+        <v>1244510</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/198515846_-1573833554464561456.png</t>
+          <t>Đồng_hồ_thông_minh/212142932_4862266102186728546.jpg</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/66/7f/752b916f89fc61763fcf18dc6ea76874.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/08/d0/5c2503b74acf53d8eeff0a6684aaa108.jpg</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-dinh-vi-kt18-chinh-hang-wonlex-p198515846.html?spid=198515848</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-trai-gai-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-chong-nuoc-ip67-goi-video-call-dinh-vi-gps-wifi-ama-watch-d32-hang-nhap-khau-p212142932.html?spid=212142936</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -23406,11 +23406,11 @@
         </is>
       </c>
       <c r="B535" t="n">
-        <v>196516091</v>
+        <v>198515846</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh Samsung Galaxy Watch5 40mm SM-R900N - Hàng chính hãng</t>
+          <t>Đồng Hồ Định Vị Trẻ Em Wonlex KT18 - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -23419,21 +23419,21 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>2890600</v>
+        <v>1833300</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/196516091_-110608113805442775.jpg</t>
+          <t>Đồng_hồ_thông_minh/198515846_-1573833554464561456.png</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9c/4b/3b/39c1ef7bf5f1cfb5ce79f44c744a73d5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/66/7f/752b916f89fc61763fcf18dc6ea76874.png</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-samsung-galaxy-watch5-40mm-sm-r900n-hang-chinh-hang-p196516091.html?spid=196516093</t>
+          <t>https://tiki.vn/dong-ho-dinh-vi-kt18-chinh-hang-wonlex-p198515846.html?spid=198515848</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -23449,11 +23449,11 @@
         </is>
       </c>
       <c r="B536" t="n">
-        <v>192977208</v>
+        <v>196516091</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Đồng hồ Thông minh Chống nước IP67 Dành cho Trẻ em nhuẩn AMA Watch Q16S Hàng chính hãng</t>
+          <t>Đồng hồ thông minh Samsung Galaxy Watch5 40mm SM-R900N - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -23462,21 +23462,21 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>366000</v>
+        <v>2890600</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/192977208_-1295276845238255977.jpg</t>
+          <t>Đồng_hồ_thông_minh/196516091_-110608113805442775.jpg</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/85/2c/82/084299fa304692f7dbdc403ced19c368.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9c/4b/3b/39c1ef7bf5f1cfb5ce79f44c744a73d5.jpg</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-chong-nuoc-chuan-ip67-ama-watch-q16s-hang-chinh-hang-p192977208.html?spid=193710183</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-samsung-galaxy-watch5-40mm-sm-r900n-hang-chinh-hang-p196516091.html?spid=196516093</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -23492,11 +23492,11 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>112287571</v>
+        <v>192977208</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Đồng Hồ Thông Minh cho Trẻ em 6 tuổi, 7 tuổi, 8 tuổi, 9 tuổi, 10 tuổi, 11 tuổi Lắp Sim Độc lập nghe gọi 2 chiều AMA Watch Y92 Chống nước Định vị Wifi độ chính xác cao Hàng nhập khẩu</t>
+          <t>Đồng hồ Thông minh Chống nước IP67 Dành cho Trẻ em nhuẩn AMA Watch Q16S Hàng chính hãng</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -23505,21 +23505,21 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>591361</v>
+        <v>366000</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/112287571_-6014313050433431973.jpg</t>
+          <t>Đồng_hồ_thông_minh/192977208_-1295276845238255977.jpg</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/55/38/64/d6e65ca4c3c52cf8994c77c4af5ec993.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/85/2c/82/084299fa304692f7dbdc403ced19c368.jpg</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-lap-sim-doc-lap-nghe-goi-2-chieu-ama-watch-y92-chong-nuoc-dinh-vi-wifi-do-chinh-xac-cao-hang-nhap-khau-p112287571.html?spid=112287573</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-chong-nuoc-chuan-ip67-ama-watch-q16s-hang-chinh-hang-p192977208.html?spid=193710183</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -23535,11 +23535,11 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>94304443</v>
+        <v>112287571</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Đồng Hồ Thông Minh AMA Watch Nam Nữ chống nước | Gọi điện thoại Xem tin nhắn Theo dõi Sức khỏe vận động Thiết kế nhỏ gọn Thời trang Hàng nhập khẩu</t>
+          <t>Đồng Hồ Thông Minh cho Trẻ em 6 tuổi, 7 tuổi, 8 tuổi, 9 tuổi, 10 tuổi, 11 tuổi Lắp Sim Độc lập nghe gọi 2 chiều AMA Watch Y92 Chống nước Định vị Wifi độ chính xác cao Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -23548,21 +23548,21 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1079804</v>
+        <v>591361</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/94304443_-1525890213333033887.jpg</t>
+          <t>Đồng_hồ_thông_minh/112287571_-6014313050433431973.jpg</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/d4/d2/f7eae7468d71bad8f3a2c606cc3fcd79.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/55/38/64/d6e65ca4c3c52cf8994c77c4af5ec993.jpg</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-ama-watch-nam-nu-chong-nuoc-goi-dien-thoai-xem-tin-nhan-theo-doi-suc-khoe-van-dong-thiet-ke-nho-gon-thoi-trang-hang-nhap-khau-p94304443.html?spid=94304447</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-lap-sim-doc-lap-nghe-goi-2-chieu-ama-watch-y92-chong-nuoc-dinh-vi-wifi-do-chinh-xac-cao-hang-nhap-khau-p112287571.html?spid=112287573</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -23578,11 +23578,11 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>74215680</v>
+        <v>94304443</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Đồng Hồ Thông Minh Nữ AMA Watch S27 Thời trang Kết nối Bluetooth Theo dõi Sức khỏe Vận động Màn hình tròn Hàng chính hãng</t>
+          <t>Đồng Hồ Thông Minh AMA Watch Nam Nữ chống nước | Gọi điện thoại Xem tin nhắn Theo dõi Sức khỏe vận động Thiết kế nhỏ gọn Thời trang Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -23591,21 +23591,21 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1471490</v>
+        <v>1079804</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/74215680_-5502139735237341598.png</t>
+          <t>Đồng_hồ_thông_minh/94304443_-1525890213333033887.jpg</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/b3/74/7155e36ba130c0b68d6bdd6a327aa582.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/d4/d2/f7eae7468d71bad8f3a2c606cc3fcd79.jpg</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-nu-ama-watch-s27-thoi-trang-ket-noi-bluetooth-theo-doi-suc-khoe-van-dong-man-hinh-tron-hang-chinh-hang-p74215680.html?spid=75434136</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-ama-watch-nam-nu-chong-nuoc-goi-dien-thoai-xem-tin-nhan-theo-doi-suc-khoe-van-dong-thiet-ke-nho-gon-thoi-trang-hang-nhap-khau-p94304443.html?spid=94304447</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -23621,11 +23621,11 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>5.366895306400635e+18</v>
+        <v>74215680</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây cao su</t>
+          <t>Đồng Hồ Thông Minh Nữ AMA Watch S27 Thời trang Kết nối Bluetooth Theo dõi Sức khỏe Vận động Màn hình tròn Hàng chính hãng</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -23634,26 +23634,26 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>8830000</v>
+        <v>1471490</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
+          <t>Đồng_hồ_thông_minh/74215680_-5502139735237341598.png</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/b3/74/7155e36ba130c0b68d6bdd6a327aa582.png</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-nu-ama-watch-s27-thoi-trang-ket-noi-bluetooth-theo-doi-suc-khoe-van-dong-man-hinh-tron-hang-chinh-hang-p74215680.html?spid=75434136</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>TGDD</t>
+          <t>Tiki</t>
         </is>
       </c>
     </row>
@@ -23664,11 +23664,11 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1.676033394735769e+18</v>
+        <v>5.366895306400635e+18</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch8 LTE 40mm dây siliconeMẫu mới</t>
+          <t>Huawei Watch 5 46mm dây cao su</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -23677,21 +23677,21 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>9990000</v>
+        <v>8830000</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
+          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -23707,11 +23707,11 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>6.907835202262853e+18</v>
+        <v>1.676033394735769e+18</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây compositeMẫu mới</t>
+          <t>Samsung Galaxy Watch8 LTE 40mm dây siliconeMẫu mới</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -23720,21 +23720,21 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9810000</v>
+        <v>9990000</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
+          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -23750,37 +23750,80 @@
         </is>
       </c>
       <c r="B543" t="n">
+        <v>6.907835202262853e+18</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Huawei Watch 5 46mm dây compositeMẫu mới</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Đồng hồ thông minh</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>9810000</v>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>TGDD</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>SW36</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
         <v>1.65783369162941e+18</v>
       </c>
-      <c r="C543" t="inlineStr">
+      <c r="C544" t="inlineStr">
         <is>
           <t>Garmin Venu X1 Sapphire 51.2mm dây nylonMẫu mới</t>
         </is>
       </c>
-      <c r="D543" t="inlineStr">
+      <c r="D544" t="inlineStr">
         <is>
           <t>Đồng hồ thông minh</t>
         </is>
       </c>
-      <c r="E543" t="n">
+      <c r="E544" t="n">
         <v>21090000</v>
       </c>
-      <c r="F543" t="inlineStr">
+      <c r="F544" t="inlineStr">
         <is>
           <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
         </is>
       </c>
-      <c r="G543" t="inlineStr">
+      <c r="G544" t="inlineStr">
         <is>
           <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
+      <c r="H544" t="inlineStr">
         <is>
           <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
         </is>
       </c>
-      <c r="I543" t="inlineStr">
+      <c r="I544" t="inlineStr">
         <is>
           <t>TGDD</t>
         </is>

--- a/data_cleaned_1.xlsx
+++ b/data_cleaned_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I544"/>
+  <dimension ref="A1:I542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16139,11 +16139,11 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>270105668</v>
+        <v>197708868</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Núm Tai Nghe Samsung Buds2 Pro- R510. Hàng New - Hàng Chính Hãng Có Màng Lọc. Sẵn 2 Size</t>
+          <t>Tai Nghe Không Dây Baseus Bowie WM02 True Wireless Earphones (Bluetooth V5.3, 25h sử dụng, Kích thước nhỏ gọn, Thời Trang, APP Control)  Hàng Chính hãng</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -16152,21 +16152,21 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>15000</v>
+        <v>329000</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Tai_nghe/270105668_1089454925379448411.jpg</t>
+          <t>Tai_nghe/197708868_2774105875364329132.jpg</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f9/dc/6d/b623d3cba23dfe85f663c0840970b6b4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c2/7e/08/31582e60085e596c2e7205c725ef4588.jpg</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>https://tiki.vn/num-tai-nghe-samsung-buds2-pro-r510-hang-new-hang-chinh-hang-co-mang-loc-san-2-size-p270105668.html?spid=270105674</t>
+          <t>https://tiki.vn/tai-nghe-khong-day-baseus-bowie-wm02-true-wireless-earphones-bluetooth-v5-3-25h-su-dung-kich-thuoc-nho-gon-thoi-trang-app-control-hang-chinh-hang-p197708868.html?spid=271628708</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -16182,11 +16182,11 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>197708868</v>
+        <v>25452059</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Tai Nghe Không Dây Baseus Bowie WM02 True Wireless Earphones (Bluetooth V5.3, 25h sử dụng, Kích thước nhỏ gọn, Thời Trang, APP Control)  Hàng Chính hãng</t>
+          <t>Tai Nghe Bluetooth Nhét Tai iFrogz Sound Hub Tone</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -16195,21 +16195,21 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>329000</v>
+        <v>799480</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Tai_nghe/197708868_2774105875364329132.jpg</t>
+          <t>Tai_nghe/25452059_7090097136561420021.jpg</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c2/7e/08/31582e60085e596c2e7205c725ef4588.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/81/30/4d/cabb5aa066c806c71640d66bfc673e42.jpg</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-khong-day-baseus-bowie-wm02-true-wireless-earphones-bluetooth-v5-3-25h-su-dung-kich-thuoc-nho-gon-thoi-trang-app-control-hang-chinh-hang-p197708868.html?spid=271628708</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-ifrogz-sound-hub-tone-hang-chinh-hang-p25452059.html?spid=25929178</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -16225,11 +16225,11 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>25452059</v>
+        <v>72928043</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Nhét Tai iFrogz Sound Hub Tone</t>
+          <t>Tai Nghe Bluetooth Amoi F9 kèm Củ Sạc 1A và Cáp Sạc cho Dock Sạc 3500mAh- Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -16238,21 +16238,21 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>799480</v>
+        <v>118000</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Tai_nghe/25452059_7090097136561420021.jpg</t>
+          <t>Tai_nghe/72928043_7845121026712345355.jpg</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/81/30/4d/cabb5aa066c806c71640d66bfc673e42.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/25/52/08/497ae30ca6cfbb50e1e832e24cf23aee.jpg</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-ifrogz-sound-hub-tone-hang-chinh-hang-p25452059.html?spid=25929178</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-amoi-f9-kem-cu-sac-1a-va-cap-sac-cho-dock-sac-3500mah-hang-chinh-hang-p72928043.html?spid=72928044</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -16268,11 +16268,11 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>72928043</v>
+        <v>75551911</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Amoi F9 kèm Củ Sạc 1A và Cáp Sạc cho Dock Sạc 3500mAh- Hàng Chính Hãng</t>
+          <t>Tai nghe bluetooth F9 V5.1, tai nghe không dây cảm ứng thông minh, màn hình hiển thị pin sắc nét- Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -16281,21 +16281,21 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>118000</v>
+        <v>79000</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Tai_nghe/72928043_7845121026712345355.jpg</t>
+          <t>Tai_nghe/75551911_5628991573294983298.JPG</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/25/52/08/497ae30ca6cfbb50e1e832e24cf23aee.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5e/32/87/5ff9e8c1bdd84e5d375fa54dbea4f747.JPG</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-amoi-f9-kem-cu-sac-1a-va-cap-sac-cho-dock-sac-3500mah-hang-chinh-hang-p72928043.html?spid=72928044</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-f9-v5-1-tai-nghe-khong-day-cam-ung-thong-minh-man-hinh-hien-thi-pin-sac-net-hang-nhap-khau-p75551911.html?spid=199691225</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -16311,11 +16311,11 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>75551911</v>
+        <v>272359341</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Tai nghe bluetooth F9 V5.1, tai nghe không dây cảm ứng thông minh, màn hình hiển thị pin sắc nét- Hàng nhập khẩu</t>
+          <t>Headphone Tai nghe bluetooth chụp tai không dây chống ồn chủ động ANC ROCKSPACE O3 có mic nghe nhạc 15h hàng chính hãng</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -16324,21 +16324,21 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>79000</v>
+        <v>561254</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Tai_nghe/75551911_5628991573294983298.JPG</t>
+          <t>Tai_nghe/272359341_-8444888728451178582.jpg</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5e/32/87/5ff9e8c1bdd84e5d375fa54dbea4f747.JPG</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c3/e4/e4/10524344c6979432168d9d57013ecb70.jpg</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-f9-v5-1-tai-nghe-khong-day-cam-ung-thong-minh-man-hinh-hien-thi-pin-sac-net-hang-nhap-khau-p75551911.html?spid=199691225</t>
+          <t>https://tiki.vn/headphone-tai-nghe-bluetooth-chup-tai-khong-day-chong-on-chu-dong-anc-rockspace-o3-co-mic-nghe-nhac-15h-hang-chinh-hang-p272359341.html?spid=272359345</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -16354,11 +16354,11 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>272359341</v>
+        <v>272402620</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Headphone Tai nghe bluetooth chụp tai không dây chống ồn chủ động ANC ROCKSPACE O3 có mic nghe nhạc 15h hàng chính hãng</t>
+          <t>Tai nghe Bluetooth True Wireless Anker Soundcore R50i A3949 | Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -16367,21 +16367,21 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>561254</v>
+        <v>505000</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Tai_nghe/272359341_-8444888728451178582.jpg</t>
+          <t>Tai_nghe/272402620_-83366956360049023.jpg</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c3/e4/e4/10524344c6979432168d9d57013ecb70.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c0/87/54/741cf7b7d36a5a4a6ba4dfc047a2bcd5.jpg</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>https://tiki.vn/headphone-tai-nghe-bluetooth-chup-tai-khong-day-chong-on-chu-dong-anc-rockspace-o3-co-mic-nghe-nhac-15h-hang-chinh-hang-p272359341.html?spid=272359345</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-anker-soundcore-r50i-a3949-hang-chinh-hang-p272402620.html?spid=272402622</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -16397,11 +16397,11 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>272402620</v>
+        <v>273095636</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth True Wireless Anker Soundcore R50i A3949 | Hàng Chính Hãng</t>
+          <t>Tai nghe Bluetooth Truewireless JBL Wave Beam - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -16410,21 +16410,21 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>505000</v>
+        <v>1460000</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Tai_nghe/272402620_-83366956360049023.jpg</t>
+          <t>Tai_nghe/273095636_-6403006603727708906.png</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c0/87/54/741cf7b7d36a5a4a6ba4dfc047a2bcd5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fa/69/11/5194d789a33735630c2f0f3b3c7ab4a3.png</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-anker-soundcore-r50i-a3949-hang-chinh-hang-p272402620.html?spid=272402622</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-truewireless-jbl-wave-beam-hang-chinh-hang-p273095636.html?spid=273095641</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -16440,11 +16440,11 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>273095636</v>
+        <v>273150134</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth Truewireless JBL Wave Beam - Hàng Chính Hãng</t>
+          <t>Tai nghe Bluetooth Apple AirPods Pro 2 USB-C - MTJV3ZP/A</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -16453,21 +16453,21 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>1460000</v>
+        <v>5160000</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Tai_nghe/273095636_-6403006603727708906.png</t>
+          <t>Tai_nghe/273150134_-8518420061642527969.jpg</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fa/69/11/5194d789a33735630c2f0f3b3c7ab4a3.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/e8/06/fee9f50df8614f204710c23f4b3e4c10.jpg</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-truewireless-jbl-wave-beam-hang-chinh-hang-p273095636.html?spid=273095641</t>
+          <t>https://tiki.vn/apple-airpods-pro-2-usb-c-mtjv3zp-a-p273150134.html?spid=273150135</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -16483,11 +16483,11 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>273150134</v>
+        <v>273457735</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth Apple AirPods Pro 2 USB-C - MTJV3ZP/A</t>
+          <t>Tai Nghe Bluetooth Lenovo XT80 Thể Thao , Chống Ồn Chủ Động ANC , Âm Thanh Nổi - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -16496,21 +16496,21 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>5160000</v>
+        <v>267900</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Tai_nghe/273150134_-8518420061642527969.jpg</t>
+          <t>Tai_nghe/273457735_3230843552093963701.jpg</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/e8/06/fee9f50df8614f204710c23f4b3e4c10.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/a0/03/f69146084d6b7a1be36b64a224d2a351.jpg</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-airpods-pro-2-usb-c-mtjv3zp-a-p273150134.html?spid=273150135</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-lenovo-xt80-the-thao-chong-on-chu-dong-anc-am-thanh-noi-hang-chinh-hang-p273457735.html?spid=273457736</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -16526,11 +16526,11 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>273457735</v>
+        <v>273472564</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Lenovo XT80 Thể Thao , Chống Ồn Chủ Động ANC , Âm Thanh Nổi - Hàng Chính Hãng</t>
+          <t>Tai Nghe Bluetooth RiBi G60 - Âm thanh cực hay - Pin trâu đến 8h - Sạc nhanh Type - C - Mẫu mã cực đẹp -  Hàng chính hãng</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -16539,21 +16539,21 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>267900</v>
+        <v>169000</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Tai_nghe/273457735_3230843552093963701.jpg</t>
+          <t>Tai_nghe/273472564_-8391592007587278200.jpg</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/a0/03/f69146084d6b7a1be36b64a224d2a351.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2a/ab/10/214f18b264d4b6e83c9f706635592393.jpg</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-lenovo-xt80-the-thao-chong-on-chu-dong-anc-am-thanh-noi-hang-chinh-hang-p273457735.html?spid=273457736</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-ribi-g60-hang-chinh-hang-p273472564.html?spid=273501972</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -16569,11 +16569,11 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>273472564</v>
+        <v>272030678</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth RiBi G60 - Âm thanh cực hay - Pin trâu đến 8h - Sạc nhanh Type - C - Mẫu mã cực đẹp -  Hàng chính hãng</t>
+          <t>Tai Nghe Bluetooth Cao Cấp EQ2 5.3 Pin 7h Âm Thanh Sống Động Bass căng - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -16582,21 +16582,21 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>169000</v>
+        <v>281060</v>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Tai_nghe/273472564_-8391592007587278200.jpg</t>
+          <t>Tai_nghe/272030678_7989047454580419190.jpg</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2a/ab/10/214f18b264d4b6e83c9f706635592393.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/88/1d/de9c2274ef6f780e6a9ad1869ee14f59.jpg</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-ribi-g60-hang-chinh-hang-p273472564.html?spid=273501972</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-cao-cap-hoco-eq2-5-3-pin-7h-am-thanh-song-dong-bass-cang-hang-chinh-hang-p272030678.html?spid=272030682</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -16612,11 +16612,11 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>274371516</v>
+        <v>276117054</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Đệm thay thế tai nghe Headphone Tai nghe bluetooth chụp tai Rockspace O2 - Hàng chính hãng</t>
+          <t>Tai nghe Bluetooth Apple AirPods 4</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -16625,21 +16625,21 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>48000</v>
+        <v>3060000</v>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Tai_nghe/274371516_6594525994314616914.jpg</t>
+          <t>Tai_nghe/276117054_5749646272907867967.jpg</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3a/57/6f/93874c0d8bcb311580627a147a99ab14.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/54/a5/26/0d683eea627278ac4fd5bda56fe99e3f.jpg</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dem-thay-the-tai-nghe-headphone-tai-nghe-bluetooth-chup-tai-rockspace-o2-mau-kaki-p274371516.html?spid=274371524</t>
+          <t>https://tiki.vn/airpods-4-p276117054.html?spid=276117486</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -16655,11 +16655,11 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>272030678</v>
+        <v>276515204</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Cao Cấp EQ2 5.3 Pin 7h Âm Thanh Sống Động Bass căng - Hàng Chính Hãng</t>
+          <t>Tai nghe bluetooth nhét tai RiBi X55 - Siêu mỏng - Nằm gọn trong tai - Không gây đau tai - Invisible Wearing - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -16668,21 +16668,21 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>281060</v>
+        <v>99000</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Tai_nghe/272030678_7989047454580419190.jpg</t>
+          <t>Tai_nghe/276515204_-4153954620768803106.jpg</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/88/1d/de9c2274ef6f780e6a9ad1869ee14f59.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/05/37/96/242c7b9ec08c8ee7d2300c456143d815.jpg</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-cao-cap-hoco-eq2-5-3-pin-7h-am-thanh-song-dong-bass-cang-hang-chinh-hang-p272030678.html?spid=272030682</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-ribi-x55-sieu-mong-nam-gon-trong-tai-khong-gay-dau-tai-invisible-wearing-hang-chinh-hang-p276515204.html?spid=276515210</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -16698,11 +16698,11 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>276117054</v>
+        <v>276656535</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth Apple AirPods 4</t>
+          <t>Tai Nghe Bluetooth Xiaomi Redmi Buds 6 Active - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -16711,21 +16711,21 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3060000</v>
+        <v>455000</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Tai_nghe/276117054_5749646272907867967.jpg</t>
+          <t>Tai_nghe/276656535_-1126999805771172952.jpg</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/54/a5/26/0d683eea627278ac4fd5bda56fe99e3f.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/74/53/b1/8619a892d641e67e53c9487b835937f3.jpg</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>https://tiki.vn/airpods-4-p276117054.html?spid=276117486</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-xiaomi-redmi-buds-6-active-hang-chinh-hang-p276656535.html?spid=276656550</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -16741,11 +16741,11 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>276515204</v>
+        <v>276747182</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Tai nghe bluetooth nhét tai RiBi X55 - Siêu mỏng - Nằm gọn trong tai - Không gây đau tai - Invisible Wearing - Hàng chính hãng</t>
+          <t>Tai nghe Bluetooth True Wireless Anker Soundcore R50i NC A3959 - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -16754,21 +16754,21 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>99000</v>
+        <v>460000</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Tai_nghe/276515204_-4153954620768803106.jpg</t>
+          <t>Tai_nghe/276747182_7937826031621684463.jpg</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/05/37/96/242c7b9ec08c8ee7d2300c456143d815.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/44/17/b0/25aa41fa2a3654ace168551abec4ce2a.jpg</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-ribi-x55-sieu-mong-nam-gon-trong-tai-khong-gay-dau-tai-invisible-wearing-hang-chinh-hang-p276515204.html?spid=276515210</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-anker-soundcore-r50i-nc-a3959-hang-chinh-hang-p276747182.html?spid=277911989</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -16784,11 +16784,11 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>276656535</v>
+        <v>276976267</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Xiaomi Redmi Buds 6 Active - Hàng Chính Hãng</t>
+          <t>Tai nghe Bluetooth True Wireless Samsung Galaxy Buds FE R400N - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -16797,21 +16797,21 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>455000</v>
+        <v>1420000</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Tai_nghe/276656535_-1126999805771172952.jpg</t>
+          <t>Tai_nghe/276976267_9039733077927620343.png</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/74/53/b1/8619a892d641e67e53c9487b835937f3.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/77/52/1d/d538c3367e2784aafee5ff290fd63c35.png</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-xiaomi-redmi-buds-6-active-hang-chinh-hang-p276656535.html?spid=276656550</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-samsung-galaxy-buds-fe-r400n-hang-chinh-hang-p276976267.html?spid=276976269</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -16827,11 +16827,11 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>276747182</v>
+        <v>277273194</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth True Wireless Anker Soundcore R50i NC A3959 - Hàng chính hãng</t>
+          <t>Tai nghe Bluetooth V5.4 Ho.co EW72 Chống ồn, Âm thanh sống động, màn hình LED hiển thị cảm ứng đa chức năng - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -16840,21 +16840,21 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>460000</v>
+        <v>308602</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>Tai_nghe/276747182_7937826031621684463.jpg</t>
+          <t>Tai_nghe/277273194_-350891460092170113.jpg</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/44/17/b0/25aa41fa2a3654ace168551abec4ce2a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/a7/05/6121396f2843c502bf3322f5189fe7af.jpg</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-anker-soundcore-r50i-nc-a3959-hang-chinh-hang-p276747182.html?spid=277911989</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-v5-4-hoco-ew72-chong-on-am-thanh-song-dong-man-hinh-led-hien-thi-cam-ung-da-chuc-nang-hang-chinh-hang-p277273194.html?spid=277273195</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -16870,11 +16870,11 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>276976267</v>
+        <v>277346806</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth True Wireless Samsung Galaxy Buds FE R400N - Hàng chính hãng</t>
+          <t>Tai Nghe Nhét Tai Bluetooth Chống Nước Sony WI-C100 - hàng chính hãng</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -16883,21 +16883,21 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1420000</v>
+        <v>549000</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Tai_nghe/276976267_9039733077927620343.png</t>
+          <t>Tai_nghe/277346806_2228083889650829576.jpg</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/77/52/1d/d538c3367e2784aafee5ff290fd63c35.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c7/f1/98/f5aa7c69b4dd837ce51cd5ce6ab0cd58.jpg</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-samsung-galaxy-buds-fe-r400n-hang-chinh-hang-p276976267.html?spid=276976269</t>
+          <t>https://tiki.vn/tai-nghe-nhet-tai-bluetooth-chong-nuoc-sony-wi-c100-dsee-pin-25-gio-khong-the-tot-hon-p277346806.html?spid=277346807</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -16913,11 +16913,11 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>277273194</v>
+        <v>277555163</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth V5.4 Ho.co EW72 Chống ồn, Âm thanh sống động, màn hình LED hiển thị cảm ứng đa chức năng - Hàng chính hãng</t>
+          <t>Tai Nghe Không Dây TWS QCY Ailybuds Lite - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -16926,21 +16926,21 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>308602</v>
+        <v>470000</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Tai_nghe/277273194_-350891460092170113.jpg</t>
+          <t>Tai_nghe/277555163_1389017102010247412.jpg</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/a7/05/6121396f2843c502bf3322f5189fe7af.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2d/02/d3/ca3a8ead4e8de9c3e047004a5e478edb.jpg</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-v5-4-hoco-ew72-chong-on-am-thanh-song-dong-man-hinh-led-hien-thi-cam-ung-da-chuc-nang-hang-chinh-hang-p277273194.html?spid=277273195</t>
+          <t>https://tiki.vn/tai-nghe-khong-day-tws-qcy-ailybuds-lite-hang-chinh-hang-p277555163.html?spid=277555167</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -16956,11 +16956,11 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>277346806</v>
+        <v>276295284</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Tai Nghe Nhét Tai Bluetooth Chống Nước Sony WI-C100 - hàng chính hãng</t>
+          <t>Tai Nghe Bluetooth Xiaomi Redmi Buds 6 Play - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -16969,21 +16969,21 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>549000</v>
+        <v>263200</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Tai_nghe/277346806_2228083889650829576.jpg</t>
+          <t>Tai_nghe/276295284_-5671195383608321877.jpg</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c7/f1/98/f5aa7c69b4dd837ce51cd5ce6ab0cd58.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a4/5c/d9/a6ee4ecd682e842c51481f68452cc52e.jpg</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-nhet-tai-bluetooth-chong-nuoc-sony-wi-c100-dsee-pin-25-gio-khong-the-tot-hon-p277346806.html?spid=277346807</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-xiaomi-redmi-buds-6-play-hang-chinh-hang-p276295284.html?spid=277506670</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -16999,11 +16999,11 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>277555163</v>
+        <v>57759987</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Tai Nghe Không Dây TWS QCY Ailybuds Lite - Hàng Chính Hãng</t>
+          <t>Tai nghe bluetooth nhét tai Neckband -hàng chính hãng</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -17012,21 +17012,21 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>470000</v>
+        <v>92000</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Tai_nghe/277555163_1389017102010247412.jpg</t>
+          <t>Tai_nghe/57759987_-39886761255251464.png</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2d/02/d3/ca3a8ead4e8de9c3e047004a5e478edb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/27/8f/98/45f7ac91869e926918fa019712493e89.png</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-khong-day-tws-qcy-ailybuds-lite-hang-chinh-hang-p277555163.html?spid=277555167</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-neckband-hang-chinh-hang-p57759987.html?spid=278113967</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -17042,11 +17042,11 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>276295284</v>
+        <v>271995193</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Xiaomi Redmi Buds 6 Play - Hàng Chính Hãng</t>
+          <t>Tai Nghe Bluetooth Không Dây Cao Cấp EQ1 Pin 7H Âm Thanh Sống Động Bass Chắc Cảm Ứng, Có Mic Đèn Led Sang Trọng - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -17055,21 +17055,21 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>263200</v>
+        <v>294220</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Tai_nghe/276295284_-5671195383608321877.jpg</t>
+          <t>Tai_nghe/271995193_-7619960979271064552.jpg</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a4/5c/d9/a6ee4ecd682e842c51481f68452cc52e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/83/e3/59/8648c100c98b926735d43f8aa66a153b.jpg</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-xiaomi-redmi-buds-6-play-hang-chinh-hang-p276295284.html?spid=277506670</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-khong-day-cao-cap-hoco-eq1-pin-7h-am-thanh-song-dong-bass-chac-cam-ung-co-mic-den-led-sang-trong-hang-chinh-hang-p271995193.html?spid=271995197</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -17085,11 +17085,11 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>57759987</v>
+        <v>270922218</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Tai nghe bluetooth nhét tai Neckband -hàng chính hãng</t>
+          <t>Tai nghe chụp tai Bluetooth Havit H655BT - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -17098,21 +17098,21 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>92000</v>
+        <v>1532600</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Tai_nghe/57759987_-39886761255251464.png</t>
+          <t>Tai_nghe/270922218_-6650914721951340579.jpg</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/27/8f/98/45f7ac91869e926918fa019712493e89.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/7b/bc/53c5288964145a24b2702690c1e23af4.jpg</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-neckband-hang-chinh-hang-p57759987.html?spid=278113967</t>
+          <t>https://tiki.vn/tai-nghe-chup-tai-bluetooth-havit-h655bt-hang-chinh-hang-p270922218.html?spid=270922222</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -17128,11 +17128,11 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>271995193</v>
+        <v>89692612</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Không Dây Cao Cấp EQ1 Pin 7H Âm Thanh Sống Động Bass Chắc Cảm Ứng, Có Mic Đèn Led Sang Trọng - Hàng Chính Hãng</t>
+          <t>Tai nghe Bluetooth 5.0 không dây Bluetooth chống nước Tai nghe âm thanh nổi TWS - Hàng Chính Hãng PKCB</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -17141,21 +17141,21 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>294220</v>
+        <v>88000</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Tai_nghe/271995193_-7619960979271064552.jpg</t>
+          <t>Tai_nghe/89692612_-3414548072875297740.png</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/83/e3/59/8648c100c98b926735d43f8aa66a153b.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/bd/47/340720ef390b359ba340bc80f7bb5dfb.png</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-khong-day-cao-cap-hoco-eq1-pin-7h-am-thanh-song-dong-bass-chac-cam-ung-co-mic-den-led-sang-trong-hang-chinh-hang-p271995193.html?spid=271995197</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-5-0-khong-day-bluetooth-chong-nuoc-tai-nghe-am-thanh-noi-tws-hang-chinh-hang-pkcb-p89692612.html?spid=278113799</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -17171,11 +17171,11 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>270922218</v>
+        <v>105513634</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Tai nghe chụp tai Bluetooth Havit H655BT - Hàng chính hãng</t>
+          <t>Tai Nghe Bluetooth Tai Nghe Cảm Ứng Không Dây Wireless Headset - Hàng Chính Hãng PKCB</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -17184,21 +17184,21 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1532600</v>
+        <v>88000</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Tai_nghe/270922218_-6650914721951340579.jpg</t>
+          <t>Tai_nghe/105513634_-6060479007190834679.png</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/7b/bc/53c5288964145a24b2702690c1e23af4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/f2/4c/a84b5172d2e594938de0ef56ff83abd1.png</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-chup-tai-bluetooth-havit-h655bt-hang-chinh-hang-p270922218.html?spid=270922222</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-tai-nghe-cam-ung-khong-day-wireless-headset-hang-chinh-hang-pkcb-p105513634.html?spid=278114086</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -17214,11 +17214,11 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>89692612</v>
+        <v>113568856</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth 5.0 không dây Bluetooth chống nước Tai nghe âm thanh nổi TWS - Hàng Chính Hãng PKCB</t>
+          <t>Tai nghe chụp tai không dây Remax RB-660HB - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -17227,21 +17227,21 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>88000</v>
+        <v>560000</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Tai_nghe/89692612_-3414548072875297740.png</t>
+          <t>Tai_nghe/113568856_2837292448913857088.jpg</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/bd/47/340720ef390b359ba340bc80f7bb5dfb.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cc/2d/db/7e2fbc1d0d405891e411d98716a8bdc5.jpg</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-5-0-khong-day-bluetooth-chong-nuoc-tai-nghe-am-thanh-noi-tws-hang-chinh-hang-pkcb-p89692612.html?spid=278113799</t>
+          <t>https://tiki.vn/tai-nghe-chup-tai-khong-day-remax-rb-660hb-hang-chinh-hang-p113568856.html?spid=113568857</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -17257,11 +17257,11 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>105513634</v>
+        <v>118191706</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Tai Nghe Cảm Ứng Không Dây Wireless Headset - Hàng Chính Hãng PKCB</t>
+          <t>Tai nghe bluetooth F9 Pro thương hiệu PAGINI phiên bản cập nhật 2021 – Thời gian sử dụng lên tới 4h - Tai nghe không dây mang lại sự tiện lợi cho người sử dụng – Âm thanh trầm ấm - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -17270,21 +17270,21 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>88000</v>
+        <v>79000</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Tai_nghe/105513634_-6060479007190834679.png</t>
+          <t>Tai_nghe/118191706_1754391395901474330.JPG</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/f2/4c/a84b5172d2e594938de0ef56ff83abd1.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/09/26/b0/0b7be4c5a0f70bf6bf9fd4b1590aca7f.JPG</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-tai-nghe-cam-ung-khong-day-wireless-headset-hang-chinh-hang-pkcb-p105513634.html?spid=278114086</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-f9-pro-thuong-hieu-pagini-phien-ban-cap-nhat-2021-thoi-gian-su-dung-len-toi-4h-tai-nghe-khong-day-mang-lai-su-tien-loi-cho-nguoi-su-dung-am-thanh-tram-am-p118191706.html?spid=197536474</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -17300,11 +17300,11 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>113568856</v>
+        <v>135284107</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Tai nghe chụp tai không dây Remax RB-660HB - Hàng chính hãng</t>
+          <t>Headphone Tai Nghe Chụp Tai bluetooth Rockspace O2 kết nối không dây có mic nghe nhạc liên tục 15h - Hàng chính hãng bảo hành 12 tháng</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -17313,21 +17313,21 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>560000</v>
+        <v>404160</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Tai_nghe/113568856_2837292448913857088.jpg</t>
+          <t>Tai_nghe/135284107_2755285831031949350.jpg</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cc/2d/db/7e2fbc1d0d405891e411d98716a8bdc5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/be/ab/99/89c893772221c397f8c2f0225c3e6de6.jpg</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-chup-tai-khong-day-remax-rb-660hb-hang-chinh-hang-p113568856.html?spid=113568857</t>
+          <t>https://tiki.vn/headphone-tai-nghe-chup-tai-bluetooth-rockspace-o2-ket-noi-khong-day-co-mic-nghe-nhac-lien-tuc-15h-hang-chinh-hang-p135284107.html?spid=135284115</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -17343,11 +17343,11 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>118191706</v>
+        <v>142127420</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Tai nghe bluetooth F9 Pro thương hiệu PAGINI phiên bản cập nhật 2021 – Thời gian sử dụng lên tới 4h - Tai nghe không dây mang lại sự tiện lợi cho người sử dụng – Âm thanh trầm ấm - Hàng nhập khẩu</t>
+          <t>Tai nghe game không dây Bluetooth và Lighspeed Logitech G435 – Mic ảo tích hợp, nhẹ, tương thích PC, Điện thoại, PS4, PS5 - Màu</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -17356,21 +17356,21 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>79000</v>
+        <v>1512230</v>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Tai_nghe/118191706_1754391395901474330.JPG</t>
+          <t>Tai_nghe/142127420_-6838900751770311123.png</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/09/26/b0/0b7be4c5a0f70bf6bf9fd4b1590aca7f.JPG</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/dd/3d/5e/bad705906f922b15e8f6f8b8cd94b914.png</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-f9-pro-thuong-hieu-pagini-phien-ban-cap-nhat-2021-thoi-gian-su-dung-len-toi-4h-tai-nghe-khong-day-mang-lai-su-tien-loi-cho-nguoi-su-dung-am-thanh-tram-am-p118191706.html?spid=197536474</t>
+          <t>https://tiki.vn/tai-nghe-game-khong-day-bluetooth-va-lighspeed-logitech-g435-mic-ao-tich-hop-nhe-tuong-thich-pc-dien-thoai-ps4-ps5-dolby-atmo-hang-chinh-hang-p142127420.html?spid=200804210</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -17386,11 +17386,11 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>135284107</v>
+        <v>174000599</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Headphone Tai Nghe Chụp Tai bluetooth Rockspace O2 kết nối không dây có mic nghe nhạc liên tục 15h - Hàng chính hãng bảo hành 12 tháng</t>
+          <t>Tai Nghe Bluetooth True Wireless Havit TW967 BT 5.1, Thiết Kế Công Thái Học, Driver 10mm, Nghe Nhạc Đến 5H - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -17399,21 +17399,21 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>404160</v>
+        <v>293938</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Tai_nghe/135284107_2755285831031949350.jpg</t>
+          <t>Tai_nghe/174000599_4465854392382125251.png</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/be/ab/99/89c893772221c397f8c2f0225c3e6de6.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/33/58/61/9e498bb0826998730133fffa6fdfb187.png</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>https://tiki.vn/headphone-tai-nghe-chup-tai-bluetooth-rockspace-o2-ket-noi-khong-day-co-mic-nghe-nhac-lien-tuc-15h-hang-chinh-hang-p135284107.html?spid=135284115</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-havit-tw967-bt-5-1-thiet-ke-cong-thai-hoc-driver-10mm-nghe-nhac-den-5h-hang-chinh-hang-p174000599.html?spid=195961776</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -17429,11 +17429,11 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>142127420</v>
+        <v>271820472</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Tai nghe game không dây Bluetooth và Lighspeed Logitech G435 – Mic ảo tích hợp, nhẹ, tương thích PC, Điện thoại, PS4, PS5 - Màu</t>
+          <t>Tai nghe Bluetooth True Wireless Anker Soundcore R50i A3949 - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -17442,21 +17442,21 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1512230</v>
+        <v>495000</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Tai_nghe/142127420_-6838900751770311123.png</t>
+          <t>Tai_nghe/271820472_-4652634848370407440.jpg</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/dd/3d/5e/bad705906f922b15e8f6f8b8cd94b914.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/5f/e3/0fb0b37a6de208bb533d57bb4748da34.jpg</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-game-khong-day-bluetooth-va-lighspeed-logitech-g435-mic-ao-tich-hop-nhe-tuong-thich-pc-dien-thoai-ps4-ps5-dolby-atmo-hang-chinh-hang-p142127420.html?spid=200804210</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-anker-soundcore-r50i-a3949-hang-chinh-hang-p271820472.html?spid=271820474</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -17472,11 +17472,11 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>174000599</v>
+        <v>185409732</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth True Wireless Havit TW967 BT 5.1, Thiết Kế Công Thái Học, Driver 10mm, Nghe Nhạc Đến 5H - Hàng Chính Hãng</t>
+          <t>Tai Nghe Bluetooth Lenovo Livepods LP40 TWS Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -17485,21 +17485,21 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>293938</v>
+        <v>156000</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Tai_nghe/174000599_4465854392382125251.png</t>
+          <t>Tai_nghe/185409732_6831952730684126950.jpe</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/33/58/61/9e498bb0826998730133fffa6fdfb187.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/37/fd/f0/d6a4ab56c2c3d979b5932b1ef4d5cd49.jpeg</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-havit-tw967-bt-5-1-thiet-ke-cong-thai-hoc-driver-10mm-nghe-nhac-den-5h-hang-chinh-hang-p174000599.html?spid=195961776</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-lenovo-livepods-lp40-tws-hang-chinh-hang-p185409732.html?spid=185409733</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -17515,11 +17515,11 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>271820472</v>
+        <v>197587166</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth True Wireless Anker Soundcore R50i A3949 - Hàng chính hãng</t>
+          <t>Tai Nghe Bluetooth Không Dây FIRO A18 - Tai Nghe FIRO A18 Bluetooth V5.3 - Điều Khiển Cảm Ứng Thông Minh - Công Nghệ Kháng Nước IPX5 - Tai Nghe Bluetooth Giảm Tiếng Ồn FIRO A18 - Phù Hợp Với Tất Cả Dòng Máy - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -17528,21 +17528,21 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>495000</v>
+        <v>669000</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Tai_nghe/271820472_-4652634848370407440.jpg</t>
+          <t>Tai_nghe/197587166_-8636858975129588848.jpg</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/5f/e3/0fb0b37a6de208bb533d57bb4748da34.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/51/cf/a7/923f9e1472b0f1b56c65ba5487016a9f.jpg</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-anker-soundcore-r50i-a3949-hang-chinh-hang-p271820472.html?spid=271820474</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-khong-day-firo-a15-tai-nghe-true-wireless-earbuds-firo-a15-bluetooth-v5-1-pin-dock-sac-380mah-thoi-gian-su-dung-5h-cam-ung-thong-minh-am-thanh-stereo-am-bass-cuc-chat-phu-hop-voi-tat-ca-dong-may-hang-chinh-hang-p197587166.html?spid=197587168</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -17558,11 +17558,11 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>185409732</v>
+        <v>197665885</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Lenovo Livepods LP40 TWS Hàng Chính Hãng</t>
+          <t>Tai nghe Bluetooth Apple AirPods 3 cổng Lightning - MPNY3</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -17571,21 +17571,21 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>156000</v>
+        <v>2960000</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Tai_nghe/185409732_6831952730684126950.jpe</t>
+          <t>Tai_nghe/197665885_-3267719887387344440.jpg</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/37/fd/f0/d6a4ab56c2c3d979b5932b1ef4d5cd49.jpeg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b5/13/fe/24bc74f069eabac01cc51582be6ca607.jpg</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-lenovo-livepods-lp40-tws-hang-chinh-hang-p185409732.html?spid=185409733</t>
+          <t>https://tiki.vn/apple-airpods-3-2022-sac-lightning-mpny3-p197665885.html?spid=197665886</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -17601,11 +17601,11 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>197587166</v>
+        <v>206254285</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Không Dây FIRO A18 - Tai Nghe FIRO A18 Bluetooth V5.3 - Điều Khiển Cảm Ứng Thông Minh - Công Nghệ Kháng Nước IPX5 - Tai Nghe Bluetooth Giảm Tiếng Ồn FIRO A18 - Phù Hợp Với Tất Cả Dòng Máy - Hàng Chính Hãng</t>
+          <t>Tai nghe Bluetooth nhét tai không dây True Wireless Earbuds chống ồn ANC, âm thanh cực chất , điều khiển cảm ứng, thiết kế đẹp, dễ đeo, dễ dùng, nghe hay, nút đệm cao su êm ái, sạc type C, dùng cho iPhone, điện thoại, máy tính bảng -Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -17614,21 +17614,21 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>669000</v>
+        <v>274480</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Tai_nghe/197587166_-8636858975129588848.jpg</t>
+          <t>Tai_nghe/206254285_-2830762758499271789.png</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/51/cf/a7/923f9e1472b0f1b56c65ba5487016a9f.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/14/67/c0/957d1dc449a345942c12466a96071f19.png</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-khong-day-firo-a15-tai-nghe-true-wireless-earbuds-firo-a15-bluetooth-v5-1-pin-dock-sac-380mah-thoi-gian-su-dung-5h-cam-ung-thong-minh-am-thanh-stereo-am-bass-cuc-chat-phu-hop-voi-tat-ca-dong-may-hang-chinh-hang-p197587166.html?spid=197587168</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-khong-day-true-wireless-earbuds-chong-on-anc-am-thanh-cuc-chat-dieu-khien-cam-ung-thiet-ke-dep-de-deo-de-dung-nghe-hay-nut-dem-cao-su-em-ai-sac-type-c-dung-cho-iphone-samsung-oppo-vivo-huawei-xiaomi-hang-chinh-hang-p206254285.html?spid=278114062</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -17644,11 +17644,11 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>197665885</v>
+        <v>207552873</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth Apple AirPods 3 cổng Lightning - MPNY3</t>
+          <t>Tai Nghe Không Dây TWS HAVIT TW947 Bluetooth 5.3, Độ Trễ Cực Thấp, Thời Gian Nghe 32 Giờ - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -17657,21 +17657,21 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>2960000</v>
+        <v>329000</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Tai_nghe/197665885_-3267719887387344440.jpg</t>
+          <t>Tai_nghe/207552873_-5675806802542233678.jpg</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b5/13/fe/24bc74f069eabac01cc51582be6ca607.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/38/bb/77/05b5a802d424f3e22899260f363963a5.jpg</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-airpods-3-2022-sac-lightning-mpny3-p197665885.html?spid=197665886</t>
+          <t>https://tiki.vn/tai-nghe-khong-day-tws-havit-tw947-bluetooth-5-3-do-tre-cuc-thap-thoi-gian-nghe-32-gio-hang-chinh-hang-p207552873.html?spid=207552875</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -17687,11 +17687,11 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>206254285</v>
+        <v>209386109</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Tai nghe Bluetooth nhét tai không dây True Wireless Earbuds chống ồn ANC, âm thanh cực chất , điều khiển cảm ứng, thiết kế đẹp, dễ đeo, dễ dùng, nghe hay, nút đệm cao su êm ái, sạc type C, dùng cho iPhone, điện thoại, máy tính bảng -Hàng Chính Hãng</t>
+          <t>Tai Nghe Bluetooth FIRO Fi5 Pro2 - Tai Nghe Không Dây FIRO Công Nghệ Bluetooth V5.3 - Kháng Nước IPX5 - Điều Khiển Cảm Ứng Thông Minh - Âm Bass Cực Hay - Chống Ồn Cực Tốt - Tai Nghe FIRO Fi5 Pro2 Tương Thích Với Tất Cả Dòng Máy - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -17700,21 +17700,21 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>274480</v>
+        <v>365000</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Tai_nghe/206254285_-2830762758499271789.png</t>
+          <t>Tai_nghe/209386109_-3232814786421157931.jpg</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/14/67/c0/957d1dc449a345942c12466a96071f19.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/69/a5/4f/20dc048dafd9b39a81d571e0ab897910.jpg</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-nhet-tai-khong-day-true-wireless-earbuds-chong-on-anc-am-thanh-cuc-chat-dieu-khien-cam-ung-thiet-ke-dep-de-deo-de-dung-nghe-hay-nut-dem-cao-su-em-ai-sac-type-c-dung-cho-iphone-samsung-oppo-vivo-huawei-xiaomi-hang-chinh-hang-p206254285.html?spid=278114062</t>
+          <t>https://tiki.vn/tai-nghe-true-wireless-firo-a7-chong-on-chu-dong-anc-tai-nghe-bluetooth-nhet-tai-khong-day-cong-nghe-khang-nuoc-ipx5-cam-ung-thong-minh-thoi-gian-nghe-nhac-18-gio-tuong-thich-voi-tat-ca-dong-may-hang-chinh-hang-p209386109.html?spid=274578942</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -17730,11 +17730,11 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>207552873</v>
+        <v>248761700</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Tai Nghe Không Dây TWS HAVIT TW947 Bluetooth 5.3, Độ Trễ Cực Thấp, Thời Gian Nghe 32 Giờ - Hàng Chính Hãng</t>
+          <t>Tai nghe bluetooth Rock Retro nghe nhạc liên tục 12h - Hàng chính hãng bảo hành 1 năm</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -17743,21 +17743,21 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>329000</v>
+        <v>679680</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Tai_nghe/207552873_-5675806802542233678.jpg</t>
+          <t>Tai_nghe/248761700_-7028269750745470921.jpg</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/38/bb/77/05b5a802d424f3e22899260f363963a5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/d1/12/b0d36ab9ee644ba73c598d3a688ad24f.jpg</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-khong-day-tws-havit-tw947-bluetooth-5-3-do-tre-cuc-thap-thoi-gian-nghe-32-gio-hang-chinh-hang-p207552873.html?spid=207552875</t>
+          <t>https://tiki.vn/tai-nghe-khong-day-rock-retro-style-true-wireless-stereo-bluetooth-rockspace-nghe-nhac-lien-tuc-12h-hang-chinh-hang-p248761700.html?spid=275938498</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -17773,11 +17773,11 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>209386109</v>
+        <v>262784708</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth FIRO Fi5 Pro2 - Tai Nghe Không Dây FIRO Công Nghệ Bluetooth V5.3 - Kháng Nước IPX5 - Điều Khiển Cảm Ứng Thông Minh - Âm Bass Cực Hay - Chống Ồn Cực Tốt - Tai Nghe FIRO Fi5 Pro2 Tương Thích Với Tất Cả Dòng Máy - Hàng Chính Hãng</t>
+          <t>HÀNG CHÍNH HÃNG - Tai Nghe SCS S3 Dành Cho Mũ Bảo Hiểm Tích Hợp Intercom</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -17786,21 +17786,21 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>365000</v>
+        <v>3083630</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Tai_nghe/209386109_-3232814786421157931.jpg</t>
+          <t>Tai_nghe/262784708_2658362289291082472.png</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/69/a5/4f/20dc048dafd9b39a81d571e0ab897910.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a3/ce/3b/15bbbd64978cda29e316823a4a154aa6.png</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-true-wireless-firo-a7-chong-on-chu-dong-anc-tai-nghe-bluetooth-nhet-tai-khong-day-cong-nghe-khang-nuoc-ipx5-cam-ung-thong-minh-thoi-gian-nghe-nhac-18-gio-tuong-thich-voi-tat-ca-dong-may-hang-chinh-hang-p209386109.html?spid=274578942</t>
+          <t>https://tiki.vn/hang-chinh-hang-tai-nghe-mu-bao-hiem-mo-to-phuot-scs-bluetooth-helmet-intercom-scs-s3-p262784708.html?spid=253094667</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -17816,11 +17816,11 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>248761700</v>
+        <v>191684818</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Tai nghe bluetooth Rock Retro nghe nhạc liên tục 12h - Hàng chính hãng bảo hành 1 năm</t>
+          <t>Tai Nghe Bluetooth True Wireless AMOI F9 Cảm Ứng Vân Tay, Nâng Cấp Dock Sạc có Led Báo Pin Kép - Hàng Nhập Khẩu</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -17829,21 +17829,21 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>679680</v>
+        <v>89000</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Tai_nghe/248761700_-7028269750745470921.jpg</t>
+          <t>Tai_nghe/191684818_-4788642630113522791.jpg</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/d1/12/b0d36ab9ee644ba73c598d3a688ad24f.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/70/e3/7e/90a3362c9f851c25598b02a276176819.jpg</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-khong-day-rock-retro-style-true-wireless-stereo-bluetooth-rockspace-nghe-nhac-lien-tuc-12h-hang-chinh-hang-p248761700.html?spid=275938498</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-amoi-f9-5-0-cam-ung-van-tay-nang-cap-dock-sac-co-led-bao-pin-kep-hang-nhap-khau-p191684818.html?spid=210637817</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -17859,11 +17859,11 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>262784708</v>
+        <v>37724209</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>HÀNG CHÍNH HÃNG - Tai Nghe SCS S3 Dành Cho Mũ Bảo Hiểm Tích Hợp Intercom</t>
+          <t>Tai Nghe Nhét Tai Bluetooth Có Micro Focal Sphear Wireless - Màu</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -17872,21 +17872,21 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>3083630</v>
+        <v>2440000</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Tai_nghe/262784708_2658362289291082472.png</t>
+          <t>Tai_nghe/37724209_3748272445213425246.jpg</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a3/ce/3b/15bbbd64978cda29e316823a4a154aa6.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/97/e5/9a/c0dc70ddcf1e264336ae788e834d9371.jpg</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>https://tiki.vn/hang-chinh-hang-tai-nghe-mu-bao-hiem-mo-to-phuot-scs-bluetooth-helmet-intercom-scs-s3-p262784708.html?spid=253094667</t>
+          <t>https://tiki.vn/tai-nghe-nhet-tai-bluetooth-co-micro-focal-sphear-wireless-hang-chinh-hang-p37724209.html?spid=37724217</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -17902,11 +17902,11 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>191684818</v>
+        <v>72950015</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth True Wireless AMOI F9 Cảm Ứng Vân Tay, Nâng Cấp Dock Sạc có Led Báo Pin Kép - Hàng Nhập Khẩu</t>
+          <t>Tai Nghe Bluetooth Thể Thao Cao Cấp OLAPLE Hoco ES51 - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -17915,21 +17915,21 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>89000</v>
+        <v>193030</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Tai_nghe/191684818_-4788642630113522791.jpg</t>
+          <t>Tai_nghe/72950015_4286050563977377915.jpg</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/70/e3/7e/90a3362c9f851c25598b02a276176819.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6f/aa/3b/f77b2175b377fdda921075f0a8989b05.jpg</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-amoi-f9-5-0-cam-ung-van-tay-nang-cap-dock-sac-co-led-bao-pin-kep-hang-nhap-khau-p191684818.html?spid=210637817</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-the-thao-cao-cap-olaple-hoco-es51-hang-nhap-khau-p72950015.html?spid=72950017</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -17945,11 +17945,11 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>37724209</v>
+        <v>29238111</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Tai Nghe Nhét Tai Bluetooth Có Micro Focal Sphear Wireless - Màu</t>
+          <t>Tai Nghe Bluetooth True Wireless TaoTronics SoundLiberty 53 (TT-BH053) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -17958,21 +17958,21 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2440000</v>
+        <v>262260</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Tai_nghe/37724209_3748272445213425246.jpg</t>
+          <t>Tai_nghe/29238111_-3053073173671124813.png</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/97/e5/9a/c0dc70ddcf1e264336ae788e834d9371.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/49/43/74/446a5b2bafe82da09f00e11ce103d3c9.png</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-nhet-tai-bluetooth-co-micro-focal-sphear-wireless-hang-chinh-hang-p37724209.html?spid=37724217</t>
+          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-taotronics-tt-bh053-hang-chinh-hang-p29238111.html?spid=58864454</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -17984,38 +17984,38 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>HP100</t>
+          <t>SP01</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>72950015</v>
+        <v>274638659</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth Thể Thao Cao Cấp OLAPLE Hoco ES51 - Hàng nhập khẩu</t>
+          <t>Điện Thoại Xiaomi Redmi Note 13 Pro 5G 8GB/128GB Snapdragon 7s Gen 2 , Màn OLED 120Hz, Rom Tiếng việt - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Tai nghe</t>
+          <t>Điện thoại</t>
         </is>
       </c>
       <c r="E409" t="n">
-        <v>193030</v>
+        <v>4699000</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Tai_nghe/72950015_4286050563977377915.jpg</t>
+          <t>Điện_thoại/274638659_3225330524156043396.jpg</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6f/aa/3b/f77b2175b377fdda921075f0a8989b05.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/46/d7/6c4179b0a95c74d323e44d2bb1c5bef5.jpg</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-the-thao-cao-cap-olaple-hoco-es51-hang-nhap-khau-p72950015.html?spid=72950017</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-13-pro-5g-8gb-128gb-snapdragon-7s-gen-2-man-oled-120hz-rom-tieng-viet-hang-nhap-khau-p274638659.html?spid=274638661</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -18027,38 +18027,38 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>HP101</t>
+          <t>SP02</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>29238111</v>
+        <v>277007015</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Tai Nghe Bluetooth True Wireless TaoTronics SoundLiberty 53 (TT-BH053) - Hàng Chính Hãng</t>
+          <t>Điện thoại Xiaomi Redmi Note 14 6GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Tai nghe</t>
+          <t>Điện thoại</t>
         </is>
       </c>
       <c r="E410" t="n">
-        <v>262260</v>
+        <v>3820000</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Tai_nghe/29238111_-3053073173671124813.png</t>
+          <t>Điện_thoại/277007015_-3083964707546014259.png</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/49/43/74/446a5b2bafe82da09f00e11ce103d3c9.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/fb/e0/8b6b96db507c4d58a84c021a2f10bd34.png</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tai-nghe-bluetooth-true-wireless-taotronics-tt-bh053-hang-chinh-hang-p29238111.html?spid=58864454</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-6gb-128gb-hang-chinh-hang-p277007015.html?spid=277007021</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -18070,15 +18070,15 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SP01</t>
+          <t>SP03</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>274638659</v>
+        <v>276944892</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi Note 13 Pro 5G 8GB/128GB Snapdragon 7s Gen 2 , Màn OLED 120Hz, Rom Tiếng việt - Hàng nhập khẩu</t>
+          <t>Điện Thoại Samsung Galaxy A06 4GB/64GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -18087,21 +18087,21 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>4699000</v>
+        <v>2249000</v>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Điện_thoại/274638659_3225330524156043396.jpg</t>
+          <t>Điện_thoại/276944892_-3623620621584885021.jpg</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e2/46/d7/6c4179b0a95c74d323e44d2bb1c5bef5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e6/77/8d/695ccf826070451961cb58f5afa5da57.jpg</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-13-pro-5g-8gb-128gb-snapdragon-7s-gen-2-man-oled-120hz-rom-tieng-viet-hang-nhap-khau-p274638659.html?spid=274638661</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a06-4gb-64gb-hang-chinh-hang-p276944892.html?spid=276944894</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -18113,15 +18113,15 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SP02</t>
+          <t>SP04</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>277007015</v>
+        <v>276639232</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Điện thoại Xiaomi Redmi Note 14 6GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A16 5G 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -18130,21 +18130,21 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>3820000</v>
+        <v>4909000</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Điện_thoại/277007015_-3083964707546014259.png</t>
+          <t>Điện_thoại/276639232_-1887214321304284960.jpg</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0b/fb/e0/8b6b96db507c4d58a84c021a2f10bd34.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ba/fa/f2/518ce45e3aaccf3523b32321b7710d9a.jpg</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-6gb-128gb-hang-chinh-hang-p277007015.html?spid=277007021</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a16-5g-8gb-128gb-hang-chinh-hang-p276639232.html?spid=276639234</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -18156,15 +18156,15 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SP03</t>
+          <t>SP05</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>276944892</v>
+        <v>276515327</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A06 4GB/64GB - Hàng Chính Hãng</t>
+          <t>Điện thoại POCO C75 (6GB/128GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -18173,21 +18173,21 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2249000</v>
+        <v>2290000</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Điện_thoại/276944892_-3623620621584885021.jpg</t>
+          <t>Điện_thoại/276515327_-2544560399187856366.png</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e6/77/8d/695ccf826070451961cb58f5afa5da57.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/86/e1/1afc6036aa30fd8d02a7e9d67714913b.png</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a06-4gb-64gb-hang-chinh-hang-p276944892.html?spid=276944894</t>
+          <t>https://tiki.vn/dien-thoai-poco-c75-hang-chinh-hang-p276515327.html?spid=276521609</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -18199,15 +18199,15 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SP04</t>
+          <t>SP06</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>276639232</v>
+        <v>276281988</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A16 5G 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Samsung Galaxy A06 - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -18216,21 +18216,21 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>4909000</v>
+        <v>2589000</v>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Điện_thoại/276639232_-1887214321304284960.jpg</t>
+          <t>Điện_thoại/276281988_4372521273119987847.jpg</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ba/fa/f2/518ce45e3aaccf3523b32321b7710d9a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cd/09/f1/5fb538ee1448930cb5f64ae3db698cdf.jpg</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a16-5g-8gb-128gb-hang-chinh-hang-p276639232.html?spid=276639234</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-hang-chinh-hang-p276281988.html?spid=276281996</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -18242,15 +18242,15 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SP05</t>
+          <t>SP07</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>276515327</v>
+        <v>276250848</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Điện thoại POCO C75 (6GB/128GB) - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A06 (4GB/128GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -18259,21 +18259,21 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2290000</v>
+        <v>2588000</v>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Điện_thoại/276515327_-2544560399187856366.png</t>
+          <t>Điện_thoại/276250848_-4512315810971093122.jpg</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/86/e1/1afc6036aa30fd8d02a7e9d67714913b.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4c/69/3a/e68e0c7ca78f9d3c1f289028f9f4d8b6.jpg</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-poco-c75-hang-chinh-hang-p276515327.html?spid=276521609</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-4gb-128gb-hang-chinh-hang-p276250848.html?spid=276251224</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -18285,15 +18285,15 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SP06</t>
+          <t>SP08</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>276281988</v>
+        <v>276166741</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A06 - Hàng chính hãng</t>
+          <t>Điện thoại Tecno SPARK GO 1 ( 4GB - 64GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -18302,21 +18302,21 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>2589000</v>
+        <v>1890000</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Điện_thoại/276281988_4372521273119987847.jpg</t>
+          <t>Điện_thoại/276166741_5780688114825588685.png</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/cd/09/f1/5fb538ee1448930cb5f64ae3db698cdf.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/11/b6/a8/9edc4408b426d432785ffe76eacafbb6.png</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-hang-chinh-hang-p276281988.html?spid=276281996</t>
+          <t>https://tiki.vn/tecno-spark-go-1-4gb-64gb-hang-chinh-hang-p276166741.html?spid=276166858</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -18328,15 +18328,15 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SP07</t>
+          <t>SP09</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>276250848</v>
+        <v>277014407</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A06 (4GB/128GB) - Hàng Chính Hãng</t>
+          <t>Điện thoại ZTE Blade A34 (4GB/64GB) Màn hình 6.6", Pin 5000mAh - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -18345,21 +18345,21 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>2588000</v>
+        <v>1699000</v>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Điện_thoại/276250848_-4512315810971093122.jpg</t>
+          <t>Điện_thoại/277014407_-2056168291688215302.jpg</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4c/69/3a/e68e0c7ca78f9d3c1f289028f9f4d8b6.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8f/3d/d4/265222415e48466431578e5d50528ab8.jpg</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-4gb-128gb-hang-chinh-hang-p276250848.html?spid=276251224</t>
+          <t>https://tiki.vn/dien-thoai-zte-blade-a34-4gb-64gb-man-hinh-6-6-pin-5000mah-hang-chinh-hang-p277014407.html?spid=277026884</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -18371,15 +18371,15 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SP08</t>
+          <t>SP10</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>276166741</v>
+        <v>276110349</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Điện thoại Tecno SPARK GO 1 ( 4GB - 64GB) - Hàng Chính Hãng</t>
+          <t>Apple iPhone 16 - Xanh Lưu Ly - 128GB</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -18388,21 +18388,21 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1890000</v>
+        <v>18990000</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Điện_thoại/276166741_5780688114825588685.png</t>
+          <t>Điện_thoại/276110349_-3958063674310120593.jpg</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/11/b6/a8/9edc4408b426d432785ffe76eacafbb6.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/08/c4/e4/7f1e1531606703edb5055af6f0578e24.jpg</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>https://tiki.vn/tecno-spark-go-1-4gb-64gb-hang-chinh-hang-p276166741.html?spid=276166858</t>
+          <t>https://tiki.vn/apple-iphone-16-p276110349.html?spid=276110355</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -18414,15 +18414,15 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SP09</t>
+          <t>SP11</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>277014407</v>
+        <v>276110023</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Điện thoại ZTE Blade A34 (4GB/64GB) Màn hình 6.6", Pin 5000mAh - Hàng chính hãng</t>
+          <t>Apple iPhone 16 Pro</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -18431,21 +18431,21 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1699000</v>
+        <v>24650000</v>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>Điện_thoại/277014407_-2056168291688215302.jpg</t>
+          <t>Điện_thoại/276110023_6680530745717721673.jpg</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8f/3d/d4/265222415e48466431578e5d50528ab8.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/30/f1/ec/bbde43f59e7724c4c474bb81f388f98e.jpg</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-zte-blade-a34-4gb-64gb-man-hinh-6-6-pin-5000mah-hang-chinh-hang-p277014407.html?spid=277026884</t>
+          <t>https://tiki.vn/apple-iphone-16-pro-p276110023.html?spid=276110025</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -18457,15 +18457,15 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SP10</t>
+          <t>SP12</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>276110349</v>
+        <v>276109904</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 - Xanh Lưu Ly - 128GB</t>
+          <t>Apple iPhone 16 Pro Max</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -18474,21 +18474,21 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18990000</v>
+        <v>30250000</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Điện_thoại/276110349_-3958063674310120593.jpg</t>
+          <t>Điện_thoại/276109904_5484973740973936481.jpg</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/08/c4/e4/7f1e1531606703edb5055af6f0578e24.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/be/d9/31/f9a8136c56b3a63ae3ecd46a14d3edae.jpg</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-16-p276110349.html?spid=276110355</t>
+          <t>https://tiki.vn/apple-iphone-16-pro-max-p276109904.html?spid=276109950</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
@@ -18500,15 +18500,15 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SP11</t>
+          <t>SP13</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>276110023</v>
+        <v>275716541</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Pro</t>
+          <t>Điện thoại Realme C61 (4GB/128GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -18517,21 +18517,21 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24650000</v>
+        <v>2490000</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Điện_thoại/276110023_6680530745717721673.jpg</t>
+          <t>Điện_thoại/275716541_-7535209091573923695.png</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/30/f1/ec/bbde43f59e7724c4c474bb81f388f98e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8a/24/b2/d6e6dc51c2c1b900768cb8a4ad4417e3.png</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-16-pro-p276110023.html?spid=276110025</t>
+          <t>https://tiki.vn/dien-thoai-realme-c61-4gb-128gb-hang-chinh-hang-p275716541.html?spid=275717178</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -18543,15 +18543,15 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SP12</t>
+          <t>SP14</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>276109904</v>
+        <v>273947792</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Pro Max</t>
+          <t>Điện thoại AI Samsung Galaxy S24 Ultra 12GB/512GB, Camera 200MP Zoom 100x, S Pen- Tím- Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -18560,21 +18560,21 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30250000</v>
+        <v>27988000</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Điện_thoại/276109904_5484973740973936481.jpg</t>
+          <t>Điện_thoại/273947792_-8336705136108851035.png</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/be/d9/31/f9a8136c56b3a63ae3ecd46a14d3edae.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a3/29/b3/5889b2b81f52c5c75438c7d01edf19c7.png</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-16-pro-max-p276109904.html?spid=276109950</t>
+          <t>https://tiki.vn/dien-thoai-ai-samsung-galaxy-s24-ultra-camera-200mp-zoom-100x-s-pen-vang-hang-chinh-hang-p273947792.html?spid=273947995</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -18586,15 +18586,15 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SP13</t>
+          <t>SP15</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>275716541</v>
+        <v>271967379</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Điện thoại Realme C61 (4GB/128GB) - Hàng Chính Hãng</t>
+          <t>iPhone 15 Plus</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -18603,21 +18603,21 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>2490000</v>
+        <v>18790000</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Điện_thoại/275716541_-7535209091573923695.png</t>
+          <t>Điện_thoại/271967379_-5942944688220167873.png</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8a/24/b2/d6e6dc51c2c1b900768cb8a4ad4417e3.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/6c/9e/a45bc5d76cec3c11c5f8cbcdf9e27929.png</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-realme-c61-4gb-128gb-hang-chinh-hang-p275716541.html?spid=275717178</t>
+          <t>https://tiki.vn/apple-iphone-15-plus-p271967379.html?spid=271967576</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -18629,15 +18629,15 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SP14</t>
+          <t>SP16</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>273947792</v>
+        <v>276062770</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Điện thoại AI Samsung Galaxy S24 Ultra 12GB/512GB, Camera 200MP Zoom 100x, S Pen- Tím- Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi Redmi 14C 4GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -18646,21 +18646,21 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27988000</v>
+        <v>2549000</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Điện_thoại/273947792_-8336705136108851035.png</t>
+          <t>Điện_thoại/276062770_-4945223102646920693.jpg</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a3/29/b3/5889b2b81f52c5c75438c7d01edf19c7.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/34/3f/8365843a7d8ee076c466438fe09fd60a.jpg</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-ai-samsung-galaxy-s24-ultra-camera-200mp-zoom-100x-s-pen-vang-hang-chinh-hang-p273947792.html?spid=273947995</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-14c-4gb-128gb-hang-chinh-hang-p276062770.html?spid=276062772</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -18672,15 +18672,15 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SP15</t>
+          <t>SP17</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>271967379</v>
+        <v>271966786</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>iPhone 15 Plus</t>
+          <t>iPhone 15</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -18689,21 +18689,21 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>18790000</v>
+        <v>15350000</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Điện_thoại/271967379_-5942944688220167873.png</t>
+          <t>Điện_thoại/271966786_-5012854201287983987.png</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/6c/9e/a45bc5d76cec3c11c5f8cbcdf9e27929.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/49/51/51c9ad1675f2b88999ca0689cdf207d7.png</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-15-plus-p271967379.html?spid=271967576</t>
+          <t>https://tiki.vn/apple-iphone-15-p271966786.html?spid=271966796</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -18715,15 +18715,15 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SP16</t>
+          <t>SP18</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>276062770</v>
+        <v>276110276</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi 14C 4GB/128GB - Hàng Chính Hãng</t>
+          <t>Apple iPhone 16 Plus</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -18732,21 +18732,21 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>2549000</v>
+        <v>21990000</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Điện_thoại/276062770_-4945223102646920693.jpg</t>
+          <t>Điện_thoại/276110276_-7642886130629329643.jpg</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/34/3f/8365843a7d8ee076c466438fe09fd60a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/40/c6/1e/d269dcf382b2dcab177c84954deca104.jpg</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-14c-4gb-128gb-hang-chinh-hang-p276062770.html?spid=276062772</t>
+          <t>https://tiki.vn/apple-iphone-16-plus-p276110276.html?spid=276110278</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -18758,15 +18758,15 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SP17</t>
+          <t>SP19</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>271966786</v>
+        <v>277068413</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>iPhone 15</t>
+          <t>Điện thoại Samsung Galaxy S25 Ultra, Điện thoại AI, Tìm kiếm thông minh, Video camera đêm Nightography, S Pen đa nhiệm - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -18775,21 +18775,21 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>15350000</v>
+        <v>27888000</v>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Điện_thoại/271966786_-5012854201287983987.png</t>
+          <t>Điện_thoại/277068413_-6868437893227286014.jpg</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/eb/49/51/51c9ad1675f2b88999ca0689cdf207d7.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/4a/e4/51a2c2a0ea673bba98f35b163738c272.jpg</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-15-p271966786.html?spid=271966796</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s25-ultra-dien-thoai-ai-tim-kiem-thong-minh-video-camera-dem-nightography-s-pen-da-nhiem-hang-chinh-hang-p277068413.html?spid=277068431</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -18801,15 +18801,15 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SP18</t>
+          <t>SP20</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>276110276</v>
+        <v>277164932</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Apple iPhone 16 Plus</t>
+          <t>Ốp Lưng Samsung Galaxy S25 Trong Suốt - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -18818,21 +18818,21 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>21990000</v>
+        <v>590000</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Điện_thoại/276110276_-7642886130629329643.jpg</t>
+          <t>Điện_thoại/277164932_-6140898237503711553.png</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/40/c6/1e/d269dcf382b2dcab177c84954deca104.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/df/bf/e2f54e2a64684557e20728cc54c7b2c7.png</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-16-plus-p276110276.html?spid=276110278</t>
+          <t>https://tiki.vn/op-lung-samsung-galaxy-s25-clear-cover-hang-chinh-hang-p277164932.html?spid=277164933</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -18844,15 +18844,15 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SP19</t>
+          <t>SP21</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>277068413</v>
+        <v>270975124</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy S25 Ultra, Điện thoại AI, Tìm kiếm thông minh, Video camera đêm Nightography, S Pen đa nhiệm - Hàng Chính Hãng</t>
+          <t>Điện Thoại Oppo A58 6GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -18861,21 +18861,21 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>27888000</v>
+        <v>3890000</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Điện_thoại/277068413_-6868437893227286014.jpg</t>
+          <t>Điện_thoại/270975124_-309765323840032163.jpg</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/4a/e4/51a2c2a0ea673bba98f35b163738c272.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/91/e7/7e/24461c4d1f848b11eaa4ff444f1ec5f9.jpg</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s25-ultra-dien-thoai-ai-tim-kiem-thong-minh-video-camera-dem-nightography-s-pen-da-nhiem-hang-chinh-hang-p277068413.html?spid=277068431</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-hang-chinh-hang-p270975124.html?spid=270975155</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -18887,15 +18887,15 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SP20</t>
+          <t>SP22</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>277164932</v>
+        <v>274639765</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Ốp Lưng Samsung Galaxy S25 Trong Suốt - Hàng chính hãng</t>
+          <t>Điện thoại OPPO A2M 5G 6GB/128GB , Dimensity 6020 , Màn 90Hz , Rom tiếng việt - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -18904,21 +18904,21 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>590000</v>
+        <v>3690000</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Điện_thoại/277164932_-6140898237503711553.png</t>
+          <t>Điện_thoại/274639765_3210691727438972339.jpg</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bd/df/bf/e2f54e2a64684557e20728cc54c7b2c7.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/63/bd/3f/fb7658b0316f4a930d29dbd22bbd22fa.jpg</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>https://tiki.vn/op-lung-samsung-galaxy-s25-clear-cover-hang-chinh-hang-p277164932.html?spid=277164933</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a2m-5g-6gb-128gb-dimensity-6020-man-90hz-rom-tieng-viet-hang-chinh-hang-p274639765.html?spid=274639776</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -18930,15 +18930,15 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SP21</t>
+          <t>SP23</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>270975124</v>
+        <v>275621214</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Điện Thoại Oppo A58 6GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Oppo Reno12 F 5G 8GB/256GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -18947,21 +18947,21 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>3890000</v>
+        <v>7189000</v>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Điện_thoại/270975124_-309765323840032163.jpg</t>
+          <t>Điện_thoại/275621214_8216499062423966283.jpg</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/91/e7/7e/24461c4d1f848b11eaa4ff444f1ec5f9.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/31/f4/e9/1d476864a7aae89ee1eb47851b274f3a.jpg</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-hang-chinh-hang-p270975124.html?spid=270975155</t>
+          <t>https://tiki.vn/dien-thoai-oppo-reno12-f-5g-8gb-256gb-hang-chinh-hang-p275621214.html?spid=275621216</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -18973,15 +18973,15 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SP22</t>
+          <t>SP24</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>274639765</v>
+        <v>278098703</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Điện thoại OPPO A2M 5G 6GB/128GB , Dimensity 6020 , Màn 90Hz , Rom tiếng việt - Hàng chính hãng</t>
+          <t>Điện thoại POCO C75 (8GB/256GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -18990,21 +18990,21 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>3690000</v>
+        <v>2790000</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Điện_thoại/274639765_3210691727438972339.jpg</t>
+          <t>Điện_thoại/278098703_2095942361632154034.png</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/63/bd/3f/fb7658b0316f4a930d29dbd22bbd22fa.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/bb/19/92488d2e751c6a1c5cc83cdaebfbb047.png</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a2m-5g-6gb-128gb-dimensity-6020-man-90hz-rom-tieng-viet-hang-chinh-hang-p274639765.html?spid=274639776</t>
+          <t>https://tiki.vn/dien-thoai-poco-c75-8gb-256gb-hang-chinh-hang-dk-p278098703.html?spid=278098705</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -19016,15 +19016,15 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SP23</t>
+          <t>SP25</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>275621214</v>
+        <v>278000720</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Điện Thoại Oppo Reno12 F 5G 8GB/256GB - Hàng Chính Hãng</t>
+          <t>Điện thoại HONOR X5b Plus 4GB/128GB - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -19033,21 +19033,21 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>7189000</v>
+        <v>1950000</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Điện_thoại/275621214_8216499062423966283.jpg</t>
+          <t>Điện_thoại/278000720_-2224713159010548791.jpg</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/31/f4/e9/1d476864a7aae89ee1eb47851b274f3a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a4/06/5a/d2b6b8308c9c3969477a3b1166b94189.jpg</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-reno12-f-5g-8gb-256gb-hang-chinh-hang-p275621214.html?spid=275621216</t>
+          <t>https://tiki.vn/dien-thoai-honor-x5b-plus-4gb-128gb-hang-chinh-hang-p278000720.html?spid=278000724</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -19059,15 +19059,15 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SP24</t>
+          <t>SP26</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>278098703</v>
+        <v>277930460</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Điện thoại POCO C75 (8GB/256GB) - Hàng Chính Hãng</t>
+          <t>Điện thoại Vivo Y19s (4GB/128GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -19076,21 +19076,21 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2790000</v>
+        <v>3090000</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Điện_thoại/278098703_2095942361632154034.png</t>
+          <t>Điện_thoại/277930460_-6338273362158553919.jpg</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/bb/19/92488d2e751c6a1c5cc83cdaebfbb047.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/45/0f/6e/9c8c5e75c511a4a877a3ec9da27f389e.jpg</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-poco-c75-8gb-256gb-hang-chinh-hang-dk-p278098703.html?spid=278098705</t>
+          <t>https://tiki.vn/dien-thoai-vivo-y19s-4gb-128gb-hang-chinh-hang-p277930460.html?spid=277930462</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -19102,15 +19102,15 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SP25</t>
+          <t>SP27</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>278000720</v>
+        <v>277930407</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Điện thoại HONOR X5b Plus 4GB/128GB - Hàng chính hãng</t>
+          <t>Điện thoại Tecno Spark GO 1 (3GB/64GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -19119,21 +19119,21 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>1950000</v>
+        <v>1690000</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Điện_thoại/278000720_-2224713159010548791.jpg</t>
+          <t>Điện_thoại/277930407_2543557764007806590.png</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a4/06/5a/d2b6b8308c9c3969477a3b1166b94189.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/c0/33/8b84b5235168b3659a9220325840d2b8.png</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-honor-x5b-plus-4gb-128gb-hang-chinh-hang-p278000720.html?spid=278000724</t>
+          <t>https://tiki.vn/dien-thoai-tecno-spark-go-1-3gb-64gb-hang-chinh-hang-p277930407.html?spid=277930411</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -19145,15 +19145,15 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SP26</t>
+          <t>SP28</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>277930460</v>
+        <v>277811118</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Điện thoại Vivo Y19s (4GB/128GB) - Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi Redmi Note 14 5G 8GB/256GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -19162,21 +19162,21 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3090000</v>
+        <v>6239000</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Điện_thoại/277930460_-6338273362158553919.jpg</t>
+          <t>Điện_thoại/277811118_-6314576363397787676.jpg</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/45/0f/6e/9c8c5e75c511a4a877a3ec9da27f389e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e8/04/c7/1cb4903ad84f0219e59b3f91ac7c6849.jpg</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-vivo-y19s-4gb-128gb-hang-chinh-hang-p277930460.html?spid=277930462</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-5g-8gb-256gb-hang-chinh-hang-p277811118.html?spid=277811124</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -19188,15 +19188,15 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SP27</t>
+          <t>SP29</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>277930407</v>
+        <v>277777809</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Điện thoại Tecno Spark GO 1 (3GB/64GB) - Hàng Chính Hãng</t>
+          <t>Điện thoại Samsung Galaxy A26 5G (8/128GB), Mặt lưng kính, AI-Circle to Search, Camera HDR chụp đêm sáng rõ - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -19205,21 +19205,21 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>1690000</v>
+        <v>5688000</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Điện_thoại/277930407_2543557764007806590.png</t>
+          <t>Điện_thoại/277777809_6292688563876651964.jpg</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3e/c0/33/8b84b5235168b3659a9220325840d2b8.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/11/c0/90/7ed78d65848ac95cac6cf6c03b6edcd0.jpg</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-tecno-spark-go-1-3gb-64gb-hang-chinh-hang-p277930407.html?spid=277930411</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a26-5g-8-128gb-mat-lung-kinh-ai-circle-to-search-camera-hdr-chup-dem-sang-ro-hang-chinh-hang-p277777809.html?spid=277777811</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -19231,15 +19231,15 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SP28</t>
+          <t>SP30</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>277811118</v>
+        <v>277737595</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi Note 14 5G 8GB/256GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A06 5G 4GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -19248,21 +19248,21 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>6239000</v>
+        <v>2709000</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Điện_thoại/277811118_-6314576363397787676.jpg</t>
+          <t>Điện_thoại/277737595_-1516870157022234043.jpg</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e8/04/c7/1cb4903ad84f0219e59b3f91ac7c6849.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/96/f1/ab24f9ef9a2fc5b61cb282e0564272e2.jpg</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-5g-8gb-256gb-hang-chinh-hang-p277811118.html?spid=277811124</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a06-5g-4gb-128gb-hang-chinh-hang-p277737595.html?spid=277737597</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -19274,15 +19274,15 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SP29</t>
+          <t>SP31</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>277777809</v>
+        <v>277574339</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A26 5G (8/128GB), Mặt lưng kính, AI-Circle to Search, Camera HDR chụp đêm sáng rõ - Hàng chính hãng</t>
+          <t>Củ Sạc Samsung Không Kèm Cáp 25W - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -19291,21 +19291,21 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>5688000</v>
+        <v>160000</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Điện_thoại/277777809_6292688563876651964.jpg</t>
+          <t>Điện_thoại/277574339_4168450081129120799.png</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/11/c0/90/7ed78d65848ac95cac6cf6c03b6edcd0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/28/e4/7f/d1f6c5467529914727d0d213b507a0c6.png</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a26-5g-8-128gb-mat-lung-kinh-ai-circle-to-search-camera-hdr-chup-dem-sang-ro-hang-chinh-hang-p277777809.html?spid=277777811</t>
+          <t>https://tiki.vn/cu-sac-samsung-khong-kem-cap-25w-hang-chinh-hang-p277574339.html?spid=277574341</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -19317,15 +19317,15 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SP30</t>
+          <t>SP32</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>277737595</v>
+        <v>277512620</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A06 5G 4GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A36 5G 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -19334,21 +19334,21 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>2709000</v>
+        <v>6785000</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Điện_thoại/277737595_-1516870157022234043.jpg</t>
+          <t>Điện_thoại/277512620_-3455081119234036915.jpg</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/f4/96/f1/ab24f9ef9a2fc5b61cb282e0564272e2.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1d/33/6b/a090d6f8da2d6a4b0e2fb94b37169ff4.jpg</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a06-5g-4gb-128gb-hang-chinh-hang-p277737595.html?spid=277737597</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a36-5g-8gb-128gb-hang-chinh-hang-p277512620.html?spid=277512626</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -19360,15 +19360,15 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SP31</t>
+          <t>SP33</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>277574339</v>
+        <v>277512611</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Củ Sạc Samsung Không Kèm Cáp 25W - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A56 5G 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -19377,21 +19377,21 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>160000</v>
+        <v>8329000</v>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Điện_thoại/277574339_4168450081129120799.png</t>
+          <t>Điện_thoại/277512611_6050057470735137919.jpg</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/28/e4/7f/d1f6c5467529914727d0d213b507a0c6.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5c/a1/f4/62101cca7d04b88a1d3ff68c4182451e.jpg</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>https://tiki.vn/cu-sac-samsung-khong-kem-cap-25w-hang-chinh-hang-p277574339.html?spid=277574341</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a56-5g-8gb-128gb-hang-chinh-hang-p277512611.html?spid=277512619</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -19403,15 +19403,15 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SP32</t>
+          <t>SP34</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>277512620</v>
+        <v>277466537</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A36 5G 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A36 5G - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -19420,21 +19420,21 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>6785000</v>
+        <v>6288000</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Điện_thoại/277512620_-3455081119234036915.jpg</t>
+          <t>Điện_thoại/277466537_-833065400853307519.jpg</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/1d/33/6b/a090d6f8da2d6a4b0e2fb94b37169ff4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c4/b3/ca/ffd538cdf6793fb4262a805d07751dde.jpg</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a36-5g-8gb-128gb-hang-chinh-hang-p277512620.html?spid=277512626</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a36-5g-hang-chinh-hang-p277466537.html?spid=277466543</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -19446,15 +19446,15 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SP33</t>
+          <t>SP35</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>277512611</v>
+        <v>277465334</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A56 5G 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A56 5G - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -19463,21 +19463,21 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>8329000</v>
+        <v>9810000</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Điện_thoại/277512611_6050057470735137919.jpg</t>
+          <t>Điện_thoại/277465334_2245915190680208683.jpg</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5c/a1/f4/62101cca7d04b88a1d3ff68c4182451e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/87/75/32/87ff301dd7ffd7517e0f5f254ee7fa2c.jpg</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a56-5g-8gb-128gb-hang-chinh-hang-p277512611.html?spid=277512619</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a56-5g-hang-chinh-hang-p277465334.html?spid=277465338</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -19489,15 +19489,15 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SP34</t>
+          <t>SP36</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>277466537</v>
+        <v>277360579</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A36 5G - Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi Redmi 13 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -19506,21 +19506,21 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>6288000</v>
+        <v>3249000</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Điện_thoại/277466537_-833065400853307519.jpg</t>
+          <t>Điện_thoại/277360579_2995085421986651456.jpg</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/c4/b3/ca/ffd538cdf6793fb4262a805d07751dde.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/24/4a/2f/11d371022ec1e410bfbf7d8f95af10e7.jpg</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a36-5g-hang-chinh-hang-p277466537.html?spid=277466543</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-13-8gb-128gb-hang-chinh-hang-p277360579.html?spid=277360587</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -19532,15 +19532,15 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SP35</t>
+          <t>SP37</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>277465334</v>
+        <v>277311630</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A56 5G - Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi Redmi 14C 6GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -19549,21 +19549,21 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>9810000</v>
+        <v>2749000</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Điện_thoại/277465334_2245915190680208683.jpg</t>
+          <t>Điện_thoại/277311630_1554041356025802944.jpg</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/87/75/32/87ff301dd7ffd7517e0f5f254ee7fa2c.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/11/d6/07/6373abc3dbeb9029bfcb43b26791ed17.jpg</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a56-5g-hang-chinh-hang-p277465334.html?spid=277465338</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-14c-6gb-128gb-hang-chinh-hang-p277311630.html?spid=277311634</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -19575,15 +19575,15 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SP36</t>
+          <t>SP38</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>277360579</v>
+        <v>277175913</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi 13 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi Redmi Note 14 6GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -19592,21 +19592,21 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>3249000</v>
+        <v>4169000</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Điện_thoại/277360579_2995085421986651456.jpg</t>
+          <t>Điện_thoại/277175913_2582971559822553376.jpg</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/24/4a/2f/11d371022ec1e410bfbf7d8f95af10e7.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/10/ab/85/a4099a15951fa60cdcbe24ac461725ae.jpg</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-13-8gb-128gb-hang-chinh-hang-p277360579.html?spid=277360587</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-6gb-128gb-hang-chinh-hang-p277175913.html?spid=277175917</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -19618,15 +19618,15 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SP37</t>
+          <t>SP39</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>277311630</v>
+        <v>274544634</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi 14C 6GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Redmi Note 12R 5G 6/128GB Snapdragon 4 Gen 2, Rom Quốc tế có sẳn Tiếng việt - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -19635,21 +19635,21 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>2749000</v>
+        <v>3099000</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>Điện_thoại/277311630_1554041356025802944.jpg</t>
+          <t>Điện_thoại/274544634_-7563919643112932462.jpg</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/11/d6/07/6373abc3dbeb9029bfcb43b26791ed17.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/b8/49/e2fc95922f52f6b546b3159e2e64454d.jpg</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-14c-6gb-128gb-hang-chinh-hang-p277311630.html?spid=277311634</t>
+          <t>https://tiki.vn/dien-thoai-redmi-note-12r-5g-6-128gb-snapdragon-4-gen-2-rom-quoc-te-co-san-tieng-viet-hang-nhap-khau-p274544634.html?spid=274544644</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -19661,15 +19661,15 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SP38</t>
+          <t>SP40</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>277175913</v>
+        <v>277164948</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi Note 14 6GB/128GB - Hàng Chính Hãng</t>
+          <t>Ốp Lưng Samsung Galaxy S25 Ultra Trong Suốt - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -19678,21 +19678,21 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>4169000</v>
+        <v>590000</v>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>Điện_thoại/277175913_2582971559822553376.jpg</t>
+          <t>Điện_thoại/277164948_-3426117122409300748.png</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/10/ab/85/a4099a15951fa60cdcbe24ac461725ae.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ff/dd/02/3a595bf99cc761d4c3805c9cc354a495.png</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-6gb-128gb-hang-chinh-hang-p277175913.html?spid=277175917</t>
+          <t>https://tiki.vn/op-lung-samsung-galaxy-s25-ultra-clear-cover-hang-chinh-hang-p277164948.html?spid=277164949</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -19704,15 +19704,15 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SP39</t>
+          <t>SP41</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>274544634</v>
+        <v>230155305</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Điện thoại Redmi Note 12R 5G 6/128GB Snapdragon 4 Gen 2, Rom Quốc tế có sẳn Tiếng việt - Hàng nhập khẩu</t>
+          <t>Điện thoại Xiaomi Redmi Note 10 JE 5G 4GB/64GB - Màn 90HZ - Chống Nước IP68 - Hàng Nhập Khẩu - Bản quốc tế</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -19721,21 +19721,21 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>3099000</v>
+        <v>2429000</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Điện_thoại/274544634_-7563919643112932462.jpg</t>
+          <t>Điện_thoại/230155305_6564052180904688856.jpg</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/b8/49/e2fc95922f52f6b546b3159e2e64454d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a9/5b/c9/d83c2f42fd59ea8fbb1c10a4b9ccc787.jpg</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-redmi-note-12r-5g-6-128gb-snapdragon-4-gen-2-rom-quoc-te-co-san-tieng-viet-hang-nhap-khau-p274544634.html?spid=274544644</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-10-je-5g-4gb-64gb-man-90hz-chong-nuoc-ip68-hang-nhap-khau-ban-quoc-te-p230155305.html?spid=230155311</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -19747,15 +19747,15 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SP40</t>
+          <t>SP42</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>277164948</v>
+        <v>197214029</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Ốp Lưng Samsung Galaxy S25 Ultra Trong Suốt - Hàng chính hãng</t>
+          <t>Apple iPhone 14</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -19764,21 +19764,21 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>590000</v>
+        <v>16990000</v>
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Điện_thoại/277164948_-3426117122409300748.png</t>
+          <t>Điện_thoại/197214029_1361306994441302056.png</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ff/dd/02/3a595bf99cc761d4c3805c9cc354a495.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3b/95/ec/5b2c7ec0e09565f399a0a184bd71696b.png</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>https://tiki.vn/op-lung-samsung-galaxy-s25-ultra-clear-cover-hang-chinh-hang-p277164948.html?spid=277164949</t>
+          <t>https://tiki.vn/apple-iphone-14-p197214029.html?spid=197214033</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -19790,15 +19790,15 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SP41</t>
+          <t>SP43</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>230155305</v>
+        <v>277484785</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Điện thoại Xiaomi Redmi Note 10 JE 5G 4GB/64GB - Màn 90HZ - Chống Nước IP68 - Hàng Nhập Khẩu - Bản quốc tế</t>
+          <t>Điện thoại Samsung Galaxy S25 Ultra (12GB/256GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -19807,21 +19807,21 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>2429000</v>
+        <v>27699000</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Điện_thoại/230155305_6564052180904688856.jpg</t>
+          <t>Điện_thoại/277484785_-2357336864701693236.jpg</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a9/5b/c9/d83c2f42fd59ea8fbb1c10a4b9ccc787.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7e/76/8a/f7550914e96b1e367764a58eba124a11.jpg</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-10-je-5g-4gb-64gb-man-90hz-chong-nuoc-ip68-hang-nhap-khau-ban-quoc-te-p230155305.html?spid=230155311</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s25-ultra-12gb-256gb-hang-chinh-hang-p277484785.html?spid=277489458</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -19833,15 +19833,15 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SP42</t>
+          <t>SP44</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>197214029</v>
+        <v>277437876</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Apple iPhone 14</t>
+          <t>Điện Thoại Samsung Galaxy M15 5G 4GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -19850,21 +19850,21 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>16990000</v>
+        <v>3549000</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Điện_thoại/197214029_1361306994441302056.png</t>
+          <t>Điện_thoại/277437876_-4573622082594541447.jpg</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3b/95/ec/5b2c7ec0e09565f399a0a184bd71696b.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/58/6b/8f/6cd6ccd3bb67b775b2163a50f7a6f43e.jpg</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-14-p197214029.html?spid=197214033</t>
+          <t>https://tiki.vn/dien-thoai-samsung-m15-5g-4gb-128gb-hang-chinh-hang-p277437876.html?spid=277437880</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -19876,15 +19876,15 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SP43</t>
+          <t>SP45</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>277484785</v>
+        <v>277409699</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy S25 Ultra (12GB/256GB) - Hàng chính hãng</t>
+          <t>Apple iPhone 16e</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -19893,21 +19893,21 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27699000</v>
+        <v>16490000</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>Điện_thoại/277484785_-2357336864701693236.jpg</t>
+          <t>Điện_thoại/277409699_2215018554022499707.jpg</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/7e/76/8a/f7550914e96b1e367764a58eba124a11.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5e/7b/e4/a1b03a24fdf349a63fb539dd8953db20.jpg</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s25-ultra-12gb-256gb-hang-chinh-hang-p277484785.html?spid=277489458</t>
+          <t>https://tiki.vn/apple-iphone-16e-p277409699.html?spid=277409703</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -19919,15 +19919,15 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SP44</t>
+          <t>SP46</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>277437876</v>
+        <v>277357126</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy M15 5G 4GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Realme Note 50 4GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -19936,21 +19936,21 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>3549000</v>
+        <v>2479000</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Điện_thoại/277437876_-4573622082594541447.jpg</t>
+          <t>Điện_thoại/277357126_-1177242207960780557.jpg</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/58/6b/8f/6cd6ccd3bb67b775b2163a50f7a6f43e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/47/58/f3/6d41bd4c0b787fcd2dda8c6abf4fadda.jpg</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-m15-5g-4gb-128gb-hang-chinh-hang-p277437876.html?spid=277437880</t>
+          <t>https://tiki.vn/dien-thoai-realme-note-50-4gb-128gb-hang-chinh-hang-p277357126.html?spid=277357128</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -19962,15 +19962,15 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SP45</t>
+          <t>SP47</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>277409699</v>
+        <v>277356193</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Apple iPhone 16e</t>
+          <t>Điện thoại Xiaomi Redmi Note 14 Pro+ 5G (8GB/256GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -19979,21 +19979,21 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>16490000</v>
+        <v>10890000</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Điện_thoại/277409699_2215018554022499707.jpg</t>
+          <t>Điện_thoại/277356193_8764464791798468438.jpg</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/5e/7b/e4/a1b03a24fdf349a63fb539dd8953db20.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/29/10/17ea04e162b7f63bf7bc178b7597bb21.jpg</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-16e-p277409699.html?spid=277409703</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-pro-5g-8gb-256gb-hang-chinh-hang-p277356193.html?spid=277356199</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -20005,15 +20005,15 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SP46</t>
+          <t>SP48</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>277357126</v>
+        <v>277356031</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Điện Thoại Realme Note 50 4GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Xiaomi Redmi A3 - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -20022,21 +20022,21 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>2479000</v>
+        <v>3260000</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>Điện_thoại/277357126_-1177242207960780557.jpg</t>
+          <t>Điện_thoại/277356031_-7108833509603896327.jpg</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/47/58/f3/6d41bd4c0b787fcd2dda8c6abf4fadda.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fd/51/c7/5b4bbd5c49c30191e0e9242110fd7560.jpg</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-realme-note-50-4gb-128gb-hang-chinh-hang-p277357126.html?spid=277357128</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-a3-hang-chinh-hang-p277356031.html?spid=277356043</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -20048,15 +20048,15 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SP47</t>
+          <t>SP49</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>277356193</v>
+        <v>277175955</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Điện thoại Xiaomi Redmi Note 14 Pro+ 5G (8GB/256GB) - Hàng chính hãng</t>
+          <t>Điện Thoại Xiaomi Redmi A3 3GB/64GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -20065,21 +20065,21 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>10890000</v>
+        <v>1869000</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Điện_thoại/277356193_8764464791798468438.jpg</t>
+          <t>Điện_thoại/277175955_5246317412032706357.jpg</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8e/29/10/17ea04e162b7f63bf7bc178b7597bb21.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/c2/a9/d47791500dc8a1c938439bcce17dbcc1.jpg</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-14-pro-5g-8gb-256gb-hang-chinh-hang-p277356193.html?spid=277356199</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-a3-3gb-64gb-hang-chinh-hang-p277175955.html?spid=277175959</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -20091,15 +20091,15 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SP48</t>
+          <t>SP50</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>277356031</v>
+        <v>277065642</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Điện thoại Xiaomi Redmi A3 - Hàng chính hãng</t>
+          <t>Điện thoại Samsung Galaxy S25+, Điện thoại AI, Tìm kiếm thông minh, Video camera đêm Nightography, Chip Snapdragon - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -20108,21 +20108,21 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>3260000</v>
+        <v>22288000</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>Điện_thoại/277356031_-7108833509603896327.jpg</t>
+          <t>Điện_thoại/277065642_3821004800938297060.jpg</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fd/51/c7/5b4bbd5c49c30191e0e9242110fd7560.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/ce/14/379a72e23f651d6e35f223147be4b160.jpg</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-a3-hang-chinh-hang-p277356031.html?spid=277356043</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s25-dien-thoai-ai-tim-kiem-thong-minh-video-camera-dem-nightography-chip-snapdragon-hang-chinh-hang-p277065642.html?spid=277165202</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -20134,15 +20134,15 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SP49</t>
+          <t>SP51</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>277175955</v>
+        <v>277041250</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi A3 3GB/64GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi 14T Pro 5G 12GB/512GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -20151,21 +20151,21 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>1869000</v>
+        <v>14469000</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>Điện_thoại/277175955_5246317412032706357.jpg</t>
+          <t>Điện_thoại/277041250_-1629377351641137638.jpg</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/c2/a9/d47791500dc8a1c938439bcce17dbcc1.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/04/b4/a7/056fe2c67be56d2f7a8d61016f86529d.jpg</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-a3-3gb-64gb-hang-chinh-hang-p277175955.html?spid=277175959</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-14t-pro-5g-12gb-512gb-hang-chinh-hang-p277041250.html?spid=277041252</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -20177,15 +20177,15 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SP50</t>
+          <t>SP52</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>277065642</v>
+        <v>277039291</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy S25+, Điện thoại AI, Tìm kiếm thông minh, Video camera đêm Nightography, Chip Snapdragon - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A55 5G - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -20194,21 +20194,21 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22288000</v>
+        <v>8790000</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>Điện_thoại/277065642_3821004800938297060.jpg</t>
+          <t>Điện_thoại/277039291_-5852155187377922569.jpg</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/ce/14/379a72e23f651d6e35f223147be4b160.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bc/95/c5/75b609314a8dfe8b7ece83c446bc47ce.jpg</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s25-dien-thoai-ai-tim-kiem-thong-minh-video-camera-dem-nightography-chip-snapdragon-hang-chinh-hang-p277065642.html?spid=277165202</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a55-5g-hang-chinh-hang-p277039291.html?spid=277039343</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -20220,15 +20220,15 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SP51</t>
+          <t>SP53</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>277041250</v>
+        <v>277030799</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi 14T Pro 5G 12GB/512GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Realme Note 50 , Màn 90HZ (3GB/64GB) Rom quốc tế - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -20237,21 +20237,21 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>14469000</v>
+        <v>1999000</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Điện_thoại/277041250_-1629377351641137638.jpg</t>
+          <t>Điện_thoại/277030799_8523303724427479375.jpg</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/04/b4/a7/056fe2c67be56d2f7a8d61016f86529d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/cd/bb/1602f9d78df7386eb039261a9a8ea17d.jpg</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-14t-pro-5g-12gb-512gb-hang-chinh-hang-p277041250.html?spid=277041252</t>
+          <t>https://tiki.vn/dien-thoai-realme-note-50-3gb-64gb-rom-quoc-te-hang-nhap-khau-nhat-p277030799.html?spid=277030804</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -20263,15 +20263,15 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>SP52</t>
+          <t>SP54</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>277039291</v>
+        <v>276925932</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A55 5G - Hàng Chính Hãng</t>
+          <t>Điện thoại Samsung Galaxy A16 LTE - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -20280,21 +20280,21 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>8790000</v>
+        <v>5040000</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>Điện_thoại/277039291_-5852155187377922569.jpg</t>
+          <t>Điện_thoại/276925932_1885944941898296195.jpg</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/bc/95/c5/75b609314a8dfe8b7ece83c446bc47ce.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fb/78/0c/f88ea8836a305f29cfe7f21a0f4029f2.jpg</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a55-5g-hang-chinh-hang-p277039291.html?spid=277039343</t>
+          <t>https://tiki.vn/samsung-galaxy-a16-lte-hang-chinh-hang-p276925932.html?spid=276925934</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -20306,15 +20306,15 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SP53</t>
+          <t>SP55</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>277030799</v>
+        <v>276802409</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Điện thoại Realme Note 50 , Màn 90HZ (3GB/64GB) Rom quốc tế - Hàng chính hãng</t>
+          <t>Điện thoại Samsung Galaxy A16 5G - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -20323,21 +20323,21 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>1999000</v>
+        <v>6040000</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>Điện_thoại/277030799_8523303724427479375.jpg</t>
+          <t>Điện_thoại/276802409_-3476749863622680961.jpg</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/41/cd/bb/1602f9d78df7386eb039261a9a8ea17d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/98/0c/82ec73f0993068fd307c7cc101e401a0.jpg</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-realme-note-50-3gb-64gb-rom-quoc-te-hang-nhap-khau-nhat-p277030799.html?spid=277030804</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a16-5g-hang-chinh-hang-p276802409.html?spid=276802415</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -20349,15 +20349,15 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SP54</t>
+          <t>SP56</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>276925932</v>
+        <v>276489194</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A16 LTE - Hàng chính hãng</t>
+          <t>Điện thoại Samsung Galaxy S24 FE - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -20366,21 +20366,21 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5040000</v>
+        <v>16840000</v>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>Điện_thoại/276925932_1885944941898296195.jpg</t>
+          <t>Điện_thoại/276489194_6003036611231772753.jpg</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/fb/78/0c/f88ea8836a305f29cfe7f21a0f4029f2.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/b1/87/9da32235b3a0d50ad5e2b3c5bb6a4a13.jpg</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>https://tiki.vn/samsung-galaxy-a16-lte-hang-chinh-hang-p276925932.html?spid=276925934</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s24-fe-hang-chinh-hang-p276489194.html?spid=276489196</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -20392,15 +20392,15 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SP55</t>
+          <t>SP57</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>276802409</v>
+        <v>276410628</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A16 5G - Hàng chính hãng</t>
+          <t>Điện thoại Realme V60 (6GB/128GB) 5G , Chíp Dimensity 6300, Rom tiếng việt - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -20409,21 +20409,21 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>6040000</v>
+        <v>2799000</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>Điện_thoại/276802409_-3476749863622680961.jpg</t>
+          <t>Điện_thoại/276410628_-3745500410798508486.jpg</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/98/0c/82ec73f0993068fd307c7cc101e401a0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/23/cc/4d/4e8dc54b550ca5438b8f3b4d5e786f7e.jpg</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a16-5g-hang-chinh-hang-p276802409.html?spid=276802415</t>
+          <t>https://tiki.vn/dien-thoai-realme-v60-6gb-128gb-5g-chip-dimensity-6300-rom-tieng-viet-hang-nhap-khau-p276410628.html?spid=276410632</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -20435,15 +20435,15 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SP56</t>
+          <t>SP58</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>276489194</v>
+        <v>274099409</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy S24 FE - Hàng chính hãng</t>
+          <t>Điện Thoại Xiaomi Redmi Note 13 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -20452,21 +20452,21 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>16840000</v>
+        <v>5290000</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Điện_thoại/276489194_6003036611231772753.jpg</t>
+          <t>Điện_thoại/274099409_585864838979963625.jpg</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6c/b1/87/9da32235b3a0d50ad5e2b3c5bb6a4a13.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/18/b3/f0/74c414846443736e38c8de31180c3c13.jpg</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-s24-fe-hang-chinh-hang-p276489194.html?spid=276489196</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-13-8gb-128gb-hang-chinh-hang-p274099409.html?spid=274099417</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -20478,15 +20478,15 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SP57</t>
+          <t>SP59</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>276410628</v>
+        <v>276099688</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Điện thoại Realme V60 (6GB/128GB) 5G , Chíp Dimensity 6300, Rom tiếng việt - Hàng nhập khẩu</t>
+          <t>Xiaomi Redmi Note 12 5G 8GB/128GB ,Màn AMOLED 120Hz , Snapdragon 4 Gen 1 ,Sạc 33W ,Rom tiếng việt - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -20495,21 +20495,21 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>2799000</v>
+        <v>3169000</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Điện_thoại/276410628_-3745500410798508486.jpg</t>
+          <t>Điện_thoại/276099688_-6861216057858147615.jpg</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/23/cc/4d/4e8dc54b550ca5438b8f3b4d5e786f7e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/12/2c/19/97df92d945f6fceb046d6f363a8bedb0.jpg</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-realme-v60-6gb-128gb-5g-chip-dimensity-6300-rom-tieng-viet-hang-nhap-khau-p276410628.html?spid=276410632</t>
+          <t>https://tiki.vn/xiaomi-redmi-note-12-5g-8gb-128gb-man-amoled-120hz-snapdragon-4-gen-1-sac-33w-rom-tieng-viet-hang-nhap-khau-p276099688.html?spid=276099694</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -20521,15 +20521,15 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SP58</t>
+          <t>SP60</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>274099409</v>
+        <v>277490201</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi Note 13 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Samsung Galaxy A36 5G (8GB/128GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -20538,21 +20538,21 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>5290000</v>
+        <v>6940000</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>Điện_thoại/274099409_585864838979963625.jpg</t>
+          <t>Điện_thoại/277490201_-8165882317269512128.jpg</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/18/b3/f0/74c414846443736e38c8de31180c3c13.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/52/15/e45e133fe9a563b67cb15e0c2c3e81dc.jpg</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-note-13-8gb-128gb-hang-chinh-hang-p274099409.html?spid=274099417</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a36-5g-hang-chinh-hang-p277490201.html?spid=277490203</t>
         </is>
       </c>
       <c r="I468" t="inlineStr">
@@ -20564,15 +20564,15 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SP59</t>
+          <t>SP61</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>276099688</v>
+        <v>277607297</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 12 5G 8GB/128GB ,Màn AMOLED 120Hz , Snapdragon 4 Gen 1 ,Sạc 33W ,Rom tiếng việt - Hàng nhập khẩu</t>
+          <t>Điện thoại Smartphone Vivo Y19s siêu bền - RAM 4GB ROM 128GB - Màu đen và xanh - 5500mAh - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -20581,21 +20581,21 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>3169000</v>
+        <v>3050000</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>Điện_thoại/276099688_-6861216057858147615.jpg</t>
+          <t>Điện_thoại/277607297_8033637895853753306.jpg</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/12/2c/19/97df92d945f6fceb046d6f363a8bedb0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/2c/ac/16c0f54cb6034936f9dcd799344bcb5a.jpg</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>https://tiki.vn/xiaomi-redmi-note-12-5g-8gb-128gb-man-amoled-120hz-snapdragon-4-gen-1-sac-33w-rom-tieng-viet-hang-nhap-khau-p276099688.html?spid=276099694</t>
+          <t>https://tiki.vn/vivo-y19s-4gb-128gb-p277607297.html?spid=277608199</t>
         </is>
       </c>
       <c r="I469" t="inlineStr">
@@ -20607,15 +20607,15 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SP60</t>
+          <t>SP62</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>277490201</v>
+        <v>277646748</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A36 5G (8GB/128GB) - Hàng chính hãng</t>
+          <t>Điện thoại Samsung Galaxy A06 5G (4GB/64GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -20624,21 +20624,21 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>6940000</v>
+        <v>2589000</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Điện_thoại/277490201_-8165882317269512128.jpg</t>
+          <t>Điện_thoại/277646748_-5765580608469246987.jpg</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/52/15/e45e133fe9a563b67cb15e0c2c3e81dc.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0c/36/0b/88f7befba91e4d4ef67740f7b3661a67.jpg</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a36-5g-hang-chinh-hang-p277490201.html?spid=277490203</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-5g-4gb-64gb-hang-chinh-hang-p277646748.html?spid=277646755</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -20650,15 +20650,15 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SP61</t>
+          <t>SP63</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>277607297</v>
+        <v>277651890</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Điện thoại Smartphone Vivo Y19s siêu bền - RAM 4GB ROM 128GB - Màu đen và xanh - 5500mAh - Hàng chính hãng</t>
+          <t>Điện thoại Samsung Galaxy A06 5G (4GB/128GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -20667,21 +20667,21 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>3050000</v>
+        <v>3960000</v>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Điện_thoại/277607297_8033637895853753306.jpg</t>
+          <t>Điện_thoại/277651890_8796742862942557158.jpg</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/43/2c/ac/16c0f54cb6034936f9dcd799344bcb5a.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e6/df/a4/f7a98db54c7805793d54bc7b939eeb45.jpg</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>https://tiki.vn/vivo-y19s-4gb-128gb-p277607297.html?spid=277608199</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-5g-4gb-128gb-hang-chinh-hang-p277651890.html?spid=277651926</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -20693,15 +20693,15 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SP62</t>
+          <t>SP64</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>277646748</v>
+        <v>184059211</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A06 5G (4GB/64GB) - Hàng chính hãng</t>
+          <t>Apple iPhone 13</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -20710,21 +20710,21 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>2589000</v>
+        <v>11350000</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Điện_thoại/277646748_-5765580608469246987.jpg</t>
+          <t>Điện_thoại/184059211_4466980470923147465.jpg</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0c/36/0b/88f7befba91e4d4ef67740f7b3661a67.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b7/ba/88/66059a54a3a139d45841d412379b1fe4.jpg</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-5g-4gb-64gb-hang-chinh-hang-p277646748.html?spid=277646755</t>
+          <t>https://tiki.vn/apple-iphone-13-hang-chinh-hang-p184059211.html?spid=123547399</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -20736,15 +20736,15 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SP63</t>
+          <t>SP65</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>277651890</v>
+        <v>278219968</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A06 5G (4GB/128GB) - Hàng chính hãng</t>
+          <t>Điện thoại OPPO A3 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -20753,21 +20753,21 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>3960000</v>
+        <v>4490000</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Điện_thoại/277651890_8796742862942557158.jpg</t>
+          <t>Điện_thoại/278219968_7841565248598451399.jpg</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/e6/df/a4/f7a98db54c7805793d54bc7b939eeb45.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/06/86/b4/83714e05899252ed2497c12553219ae0.jpg</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a06-5g-4gb-128gb-hang-chinh-hang-p277651890.html?spid=277651926</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a3-6gb-128gb-hang-chinh-hang-p278219968.html?spid=278219978</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -20779,15 +20779,15 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SP64</t>
+          <t>SP66</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>184059211</v>
+        <v>278219887</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Apple iPhone 13</t>
+          <t>Điện thoại OPPO Reno13 F 5G 12GB/512GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -20796,21 +20796,21 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>11350000</v>
+        <v>9490000</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Điện_thoại/184059211_4466980470923147465.jpg</t>
+          <t>Điện_thoại/278219887_-8737455034292819104.png</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b7/ba/88/66059a54a3a139d45841d412379b1fe4.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/4f/a6/5f33c000cfa27c67cd9204cbd32b65b9.png</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-iphone-13-hang-chinh-hang-p184059211.html?spid=123547399</t>
+          <t>https://tiki.vn/dien-thoai-oppo-reno13-f-5g-12gb-512gb-hang-chinh-hang-p278219887.html?spid=278219891</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -20822,15 +20822,15 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SP65</t>
+          <t>SP67</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>278219968</v>
+        <v>277944334</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Điện thoại OPPO A3 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A06 5G 4GB/64GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -20839,21 +20839,21 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>4490000</v>
+        <v>2469000</v>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>Điện_thoại/278219968_7841565248598451399.jpg</t>
+          <t>Điện_thoại/277944334_1335517115303232633.jpg</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/06/86/b4/83714e05899252ed2497c12553219ae0.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a5/a0/34/8d34647a6f97612e08a6869a6a7729ab.jpg</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a3-6gb-128gb-hang-chinh-hang-p278219968.html?spid=278219978</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a06-5g-4gb-64gb-hang-chinh-hang-p277944334.html?spid=277944336</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -20865,15 +20865,15 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SP66</t>
+          <t>SP68</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>278219887</v>
+        <v>277738691</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Điện thoại OPPO Reno13 F 5G 12GB/512GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Oppo A58 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -20882,21 +20882,21 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>9490000</v>
+        <v>3979000</v>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Điện_thoại/278219887_-8737455034292819104.png</t>
+          <t>Điện_thoại/277738691_6705091868434760416.jpg</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/02/4f/a6/5f33c000cfa27c67cd9204cbd32b65b9.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2e/5c/33/6857f633bba8589fbcf4c81c48a989c3.jpg</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-reno13-f-5g-12gb-512gb-hang-chinh-hang-p278219887.html?spid=278219891</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a58-8gb-128gb-hang-chinh-hang-p277738691.html?spid=277738695</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -20908,15 +20908,15 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SP67</t>
+          <t>SP69</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>277944334</v>
+        <v>277737629</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A06 5G 4GB/64GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Xiaomi Redmi 13 6GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -20925,21 +20925,21 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>2469000</v>
+        <v>2929000</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Điện_thoại/277944334_1335517115303232633.jpg</t>
+          <t>Điện_thoại/277737629_4572391812162864588.jpg</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a5/a0/34/8d34647a6f97612e08a6869a6a7729ab.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/24/2d/17d53a9ca3b08d40d39bff3b6fb979cb.jpg</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a06-5g-4gb-64gb-hang-chinh-hang-p277944334.html?spid=277944336</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-13-6gb-128gb-hang-chinh-hang-p277737629.html?spid=277737631</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -20951,15 +20951,15 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SP68</t>
+          <t>SP70</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>277738691</v>
+        <v>277707642</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Điện Thoại Oppo A58 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Samsung Galaxy A26 5G (8GB/128GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -20968,21 +20968,21 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>3979000</v>
+        <v>6940000</v>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Điện_thoại/277738691_6705091868434760416.jpg</t>
+          <t>Điện_thoại/277707642_-5964949713972667503.jpg</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/2e/5c/33/6857f633bba8589fbcf4c81c48a989c3.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/61/f7/fb/63445f959fb5036ba2504f7e1b91eecf.jpg</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a58-8gb-128gb-hang-chinh-hang-p277738691.html?spid=277738695</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a26-5g-8gb-128gb-hang-chinh-hang-p277707642.html?spid=277707647</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -20994,15 +20994,15 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SP69</t>
+          <t>SP71</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>277737629</v>
+        <v>277704510</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Điện Thoại Xiaomi Redmi 13 6GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện Thoại Samsung Galaxy A26 5G 8GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -21011,21 +21011,21 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>2929000</v>
+        <v>5648000</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Điện_thoại/277737629_4572391812162864588.jpg</t>
+          <t>Điện_thoại/277704510_578577759014990984.jpg</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/67/24/2d/17d53a9ca3b08d40d39bff3b6fb979cb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a7/fe/de/bc4d3269a46128e7c9c9ecb3f0e4c213.jpg</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-13-6gb-128gb-hang-chinh-hang-p277737629.html?spid=277737631</t>
+          <t>https://tiki.vn/dien-thoai-samsung-a26-5g-8gb-128gb-hang-chinh-hang-p277704510.html?spid=277704512</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -21037,15 +21037,15 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SP70</t>
+          <t>SP72</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>277707642</v>
+        <v>203661802</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A26 5G (8GB/128GB) - Hàng chính hãng</t>
+          <t>Adapter Sạc Anker 313 / 311 Charger Gen 2 30W 1 Cổng Type-C A2639  - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -21054,21 +21054,21 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>6940000</v>
+        <v>150000</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Điện_thoại/277707642_-5964949713972667503.jpg</t>
+          <t>Điện_thoại/203661802_550020572151958015.jpg</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/61/f7/fb/63445f959fb5036ba2504f7e1b91eecf.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/5e/ee/4ca7e4185f6f62d15437bef4b7dd552e.jpg</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a26-5g-8gb-128gb-hang-chinh-hang-p277707642.html?spid=277707647</t>
+          <t>https://tiki.vn/adapter-sac-anker-313-311-charger-gen-2-30w-1-cong-type-c-a2639-gift-cho-iphone-14-hang-chinh-hang-p203661802.html?spid=203661892</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -21080,15 +21080,15 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SP71</t>
+          <t>SP73</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>277704510</v>
+        <v>273440662</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Điện Thoại Samsung Galaxy A26 5G 8GB/128GB - Hàng Chính Hãng</t>
+          <t>Điện thoại Xiaomi Redmi 12 (4GB/128GB) , Helio G88 , Màn 90HZ - Hàng nhập khẩu nhật</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -21097,21 +21097,21 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>5648000</v>
+        <v>2899000</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Điện_thoại/277704510_578577759014990984.jpg</t>
+          <t>Điện_thoại/273440662_-1013418525042892863.jpg</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a7/fe/de/bc4d3269a46128e7c9c9ecb3f0e4c213.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6b/9c/fb/c698fabbab7db626d01ed069ce3d35a7.jpg</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-a26-5g-8gb-128gb-hang-chinh-hang-p277704510.html?spid=277704512</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-12-4gb-128gb-helio-g88-man-90hz-hang-chinh-hang-p273440662.html?spid=273440665</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -21123,15 +21123,15 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SP72</t>
+          <t>SP74</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>203661802</v>
+        <v>273252926</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Adapter Sạc Anker 313 / 311 Charger Gen 2 30W 1 Cổng Type-C A2639  - Hàng Chính Hãng</t>
+          <t>Điện Thoại Oppo A18 (4GB/128GB) - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -21140,21 +21140,21 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>150000</v>
+        <v>3990000</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Điện_thoại/203661802_550020572151958015.jpg</t>
+          <t>Điện_thoại/273252926_-1915311473750114957.jpg</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ee/5e/ee/4ca7e4185f6f62d15437bef4b7dd552e.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/af/0a/56/73f61616002a510fec2c85905d3fbc9a.jpg</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>https://tiki.vn/adapter-sac-anker-313-311-charger-gen-2-30w-1-cong-type-c-a2639-gift-cho-iphone-14-hang-chinh-hang-p203661802.html?spid=203661892</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a18-4gb-128gb-hang-chinh-hang-p273252926.html?spid=273356373</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -21166,15 +21166,15 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SP73</t>
+          <t>SP75</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>273440662</v>
+        <v>1.374621976915401e+18</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Điện thoại Xiaomi Redmi 12 (4GB/128GB) , Helio G88 , Màn 90HZ - Hàng nhập khẩu nhật</t>
+          <t>Masstel S9 6GB/256GB</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -21183,41 +21183,41 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>2899000</v>
+        <v>2940000</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Điện_thoại/273440662_-1013418525042892863.jpg</t>
+          <t>Điện_thoại/1374621976915401329_-4892783058906505733.jpg</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6b/9c/fb/c698fabbab7db626d01ed069ce3d35a7.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/336409/masstel-s9-gold-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-12-4gb-128gb-helio-g88-man-90hz-hang-chinh-hang-p273440662.html?spid=273440665</t>
+          <t>https://www.thegioididong.com/dtdd/masstel-s9</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SP74</t>
+          <t>SP76</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>273252926</v>
+        <v>1.48996638235539e+18</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Điện Thoại Oppo A18 (4GB/128GB) - Hàng Chính Hãng</t>
+          <t>realme 14T 5G 8GB/256GB</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -21226,41 +21226,41 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>3990000</v>
+        <v>8140000</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Điện_thoại/273252926_-1915311473750114957.jpg</t>
+          <t>Điện_thoại/1489966382355390066_6480578644834263255.jpg</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/af/0a/56/73f61616002a510fec2c85905d3fbc9a.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/336619/realme-14t-5g-black-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a18-4gb-128gb-hang-chinh-hang-p273252926.html?spid=273356373</t>
+          <t>https://www.thegioididong.com/dtdd/realme-14t-5g-8gb</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SP75</t>
+          <t>SP77</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1.374621976915401e+18</v>
+        <v>1.028589462754631e+18</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Masstel S9 6GB/256GB</t>
+          <t>vivo V50 Lite 5G 8GB/256GB</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -21269,21 +21269,21 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>2940000</v>
+        <v>9810000</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Điện_thoại/1374621976915401329_-4892783058906505733.jpg</t>
+          <t>Điện_thoại/1028589462754630505_-6628099219537170117.jpg</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/336409/masstel-s9-gold-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/336408/vivo-v50-lite-gold-5g-thumbai-600x600.jpg</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/masstel-s9</t>
+          <t>https://www.thegioididong.com/dtdd/vivo-v50-lite-5g</t>
         </is>
       </c>
       <c r="I485" t="inlineStr">
@@ -21295,15 +21295,15 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SP76</t>
+          <t>SP78</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1.48996638235539e+18</v>
+        <v>8.31667457016748e+18</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>realme 14T 5G 8GB/256GB</t>
+          <t>vivo Y39 5G 8GB/128GB</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -21312,21 +21312,21 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8140000</v>
+        <v>7360000</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Điện_thoại/1489966382355390066_6480578644834263255.jpg</t>
+          <t>Điện_thoại/8316674570167480249_-6523305011076759174.jpg</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/336619/realme-14t-5g-black-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/339180/vivo-y39-tim-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/realme-14t-5g-8gb</t>
+          <t>https://www.thegioididong.com/dtdd/vivo-y39-5g</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -21338,15 +21338,15 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SP77</t>
+          <t>SP79</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1.028589462754631e+18</v>
+        <v>5.694069305027419e+18</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>vivo V50 Lite 5G 8GB/256GB</t>
+          <t>iPhone 16 128GB</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -21355,21 +21355,21 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>9810000</v>
+        <v>19090000</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Điện_thoại/1028589462754630505_-6628099219537170117.jpg</t>
+          <t>Điện_thoại/5694069305027419505_-5030398807857658316.png</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/336408/vivo-v50-lite-gold-5g-thumbai-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/329135/iphone-16-blue-600x600.png</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/vivo-v50-lite-5g</t>
+          <t>https://www.thegioididong.com/dtdd/iphone-16?utm_flashsale=1</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -21381,15 +21381,15 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SP78</t>
+          <t>SP80</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>8.31667457016748e+18</v>
+        <v>6.91719678576279e+18</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>vivo Y39 5G 8GB/128GB</t>
+          <t>OPPO Reno14 5G 12GB/512GB</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -21398,21 +21398,21 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>7360000</v>
+        <v>16690000</v>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Điện_thoại/8316674570167480249_-6523305011076759174.jpg</t>
+          <t>Điện_thoại/6917196785762790445_3707069294462226038.jpg</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/339180/vivo-y39-tim-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/339174/oppo-reno14-5g-green-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/vivo-y39-5g</t>
+          <t>https://www.thegioididong.com/dtdd/oppo-reno14-5g-512gb</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -21424,15 +21424,15 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>SP79</t>
+          <t>SP81</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>5.694069305027419e+18</v>
+        <v>1.406664115091273e+18</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>iPhone 16 128GB</t>
+          <t>iPhone 16 Pro 128GB</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -21441,21 +21441,21 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>19090000</v>
+        <v>25090000</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Điện_thoại/5694069305027419505_-5030398807857658316.png</t>
+          <t>Điện_thoại/1406664115091272891_8516638511617661970.png</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/329135/iphone-16-blue-600x600.png</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/329143/iphone-16-pro-titan-sa-mac.png</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/iphone-16?utm_flashsale=1</t>
+          <t>https://www.thegioididong.com/dtdd/iphone-16-pro</t>
         </is>
       </c>
       <c r="I489" t="inlineStr">
@@ -21467,15 +21467,15 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SP80</t>
+          <t>SP82</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>6.91719678576279e+18</v>
+        <v>9.124292983604042e+18</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>OPPO Reno14 5G 12GB/512GB</t>
+          <t>realme Note 70 4GB/64GBMẫu mới</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -21484,21 +21484,21 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>16690000</v>
+        <v>3090000</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>Điện_thoại/6917196785762790445_3707069294462226038.jpg</t>
+          <t>Điện_thoại/9124292983604041560_-3709624913179203087.jpg</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/339174/oppo-reno14-5g-green-thumb-600x600.jpg</t>
+          <t>https://cdnv2.tgdd.vn/mwg-static/tgdd/Products/Images/42/340260/realme-note-70-4gb-64gb-160725-095001-095-600x600.jpg</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/oppo-reno14-5g-512gb</t>
+          <t>https://www.thegioididong.com/dtdd/realme-note-70-4gb-64gb</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
@@ -21510,15 +21510,15 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SP81</t>
+          <t>SP83</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1.406664115091273e+18</v>
+        <v>4.40898092522554e+18</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>iPhone 16 Pro 128GB</t>
+          <t>Xiaomi Redmi Note 14 Pro 8GB/256GB</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -21527,21 +21527,21 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>25090000</v>
+        <v>7850000</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Điện_thoại/1406664115091272891_8516638511617661970.png</t>
+          <t>Điện_thoại/4408980925225540339_4719962018704798163.jpg</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/329143/iphone-16-pro-titan-sa-mac.png</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/320730/xiaomi-redmi-note-14-pro-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/iphone-16-pro</t>
+          <t>https://www.thegioididong.com/dtdd/xiaomi-redmi-note-14-pro</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -21553,15 +21553,15 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SP82</t>
+          <t>SP84</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>9.124292983604042e+18</v>
+        <v>5.694069305027419e+18</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>realme Note 70 4GB/64GBMẫu mới</t>
+          <t>iPhone 16 128GB</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -21570,21 +21570,21 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>3090000</v>
+        <v>19090000</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>Điện_thoại/9124292983604041560_-3709624913179203087.jpg</t>
+          <t>Điện_thoại/5694069305027419505_-5030398807857658316.png</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>https://cdnv2.tgdd.vn/mwg-static/tgdd/Products/Images/42/340260/realme-note-70-4gb-64gb-160725-095001-095-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/329135/iphone-16-blue-600x600.png</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/realme-note-70-4gb-64gb</t>
+          <t>https://www.thegioididong.com/dtdd/iphone-16?utm_flashsale=1</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -21596,15 +21596,15 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SP83</t>
+          <t>SP85</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>4.40898092522554e+18</v>
+        <v>1.374621976915401e+18</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 14 Pro 8GB/256GB</t>
+          <t>Masstel S9 6GB/256GB</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -21613,21 +21613,21 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>7850000</v>
+        <v>2940000</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Điện_thoại/4408980925225540339_4719962018704798163.jpg</t>
+          <t>Điện_thoại/1374621976915401329_-4892783058906505733.jpg</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/320730/xiaomi-redmi-note-14-pro-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/336409/masstel-s9-gold-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/xiaomi-redmi-note-14-pro</t>
+          <t>https://www.thegioididong.com/dtdd/masstel-s9</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
@@ -21639,15 +21639,15 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SP84</t>
+          <t>SP86</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>5.694069305027419e+18</v>
+        <v>1.48996638235539e+18</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>iPhone 16 128GB</t>
+          <t>realme 14T 5G 8GB/256GB</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -21656,21 +21656,21 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>19090000</v>
+        <v>8140000</v>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>Điện_thoại/5694069305027419505_-5030398807857658316.png</t>
+          <t>Điện_thoại/1489966382355390066_6480578644834263255.jpg</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/329135/iphone-16-blue-600x600.png</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/336619/realme-14t-5g-black-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/iphone-16?utm_flashsale=1</t>
+          <t>https://www.thegioididong.com/dtdd/realme-14t-5g-8gb</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
@@ -21682,15 +21682,15 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SP85</t>
+          <t>SP87</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1.374621976915401e+18</v>
+        <v>1.028589462754631e+18</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Masstel S9 6GB/256GB</t>
+          <t>vivo V50 Lite 5G 8GB/256GB</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -21699,21 +21699,21 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>2940000</v>
+        <v>9810000</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>Điện_thoại/1374621976915401329_-4892783058906505733.jpg</t>
+          <t>Điện_thoại/1028589462754630505_-6628099219537170117.jpg</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/336409/masstel-s9-gold-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/336408/vivo-v50-lite-gold-5g-thumbai-600x600.jpg</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/masstel-s9</t>
+          <t>https://www.thegioididong.com/dtdd/vivo-v50-lite-5g</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -21725,15 +21725,15 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SP86</t>
+          <t>SP88</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1.48996638235539e+18</v>
+        <v>8.31667457016748e+18</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>realme 14T 5G 8GB/256GB</t>
+          <t>vivo Y39 5G 8GB/128GB</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -21742,21 +21742,21 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>8140000</v>
+        <v>7360000</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Điện_thoại/1489966382355390066_6480578644834263255.jpg</t>
+          <t>Điện_thoại/8316674570167480249_-6523305011076759174.jpg</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/336619/realme-14t-5g-black-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/339180/vivo-y39-tim-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/realme-14t-5g-8gb</t>
+          <t>https://www.thegioididong.com/dtdd/vivo-y39-5g</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -21768,15 +21768,15 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>SP87</t>
+          <t>SP89</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1.028589462754631e+18</v>
+        <v>4.40898092522554e+18</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>vivo V50 Lite 5G 8GB/256GB</t>
+          <t>Xiaomi Redmi Note 14 Pro 8GB/256GB</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -21785,21 +21785,21 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>9810000</v>
+        <v>7850000</v>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>Điện_thoại/1028589462754630505_-6628099219537170117.jpg</t>
+          <t>Điện_thoại/4408980925225540339_4719962018704798163.jpg</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/336408/vivo-v50-lite-gold-5g-thumbai-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/320730/xiaomi-redmi-note-14-pro-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/vivo-v50-lite-5g</t>
+          <t>https://www.thegioididong.com/dtdd/xiaomi-redmi-note-14-pro</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -21811,15 +21811,15 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SP88</t>
+          <t>SP90</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>8.31667457016748e+18</v>
+        <v>6.91719678576279e+18</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>vivo Y39 5G 8GB/128GB</t>
+          <t>OPPO Reno14 5G 12GB/512GB</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -21828,21 +21828,21 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>7360000</v>
+        <v>16690000</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>Điện_thoại/8316674570167480249_-6523305011076759174.jpg</t>
+          <t>Điện_thoại/6917196785762790445_3707069294462226038.jpg</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/339180/vivo-y39-tim-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/339174/oppo-reno14-5g-green-thumb-600x600.jpg</t>
         </is>
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/vivo-y39-5g</t>
+          <t>https://www.thegioididong.com/dtdd/oppo-reno14-5g-512gb</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
@@ -21854,15 +21854,15 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>SP89</t>
+          <t>SP91</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>4.40898092522554e+18</v>
+        <v>1.406664115091273e+18</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Xiaomi Redmi Note 14 Pro 8GB/256GB</t>
+          <t>iPhone 16 Pro 128GB</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -21871,21 +21871,21 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>7850000</v>
+        <v>25090000</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>Điện_thoại/4408980925225540339_4719962018704798163.jpg</t>
+          <t>Điện_thoại/1406664115091272891_8516638511617661970.png</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/320730/xiaomi-redmi-note-14-pro-thumb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/42/329143/iphone-16-pro-titan-sa-mac.png</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/xiaomi-redmi-note-14-pro</t>
+          <t>https://www.thegioididong.com/dtdd/iphone-16-pro</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
@@ -21897,15 +21897,15 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SP90</t>
+          <t>SP92</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>6.91719678576279e+18</v>
+        <v>9.124292983604042e+18</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>OPPO Reno14 5G 12GB/512GB</t>
+          <t>realme Note 70 4GB/64GBMẫu mới</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -21914,21 +21914,21 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>16690000</v>
+        <v>3090000</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>Điện_thoại/6917196785762790445_3707069294462226038.jpg</t>
+          <t>Điện_thoại/9124292983604041560_-3709624913179203087.jpg</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/339174/oppo-reno14-5g-green-thumb-600x600.jpg</t>
+          <t>https://cdnv2.tgdd.vn/mwg-static/tgdd/Products/Images/42/340260/realme-note-70-4gb-64gb-160725-095001-095-600x600.jpg</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/oppo-reno14-5g-512gb</t>
+          <t>https://www.thegioididong.com/dtdd/realme-note-70-4gb-64gb</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -21940,15 +21940,15 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SP91</t>
+          <t>SP93</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1.406664115091273e+18</v>
+        <v>273258825</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>iPhone 16 Pro 128GB</t>
+          <t>Điện thoại Samsung Galaxy A05s (4GB/128GB) - Đã kích hoạt bảo hành điện tử - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -21957,41 +21957,41 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25090000</v>
+        <v>3625000</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Điện_thoại/1406664115091272891_8516638511617661970.png</t>
+          <t>Điện_thoại/273258825_-1174226127386122732.jpg</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/42/329143/iphone-16-pro-titan-sa-mac.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/44/a2/f8/768771540cb86d9b1a7be98e9ab8d025.jpg</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/iphone-16-pro</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a05s-4gb-128gb-da-kich-hoat-bao-hanh-dien-tu-hang-chinh-hang-p273258825.html?spid=273550760</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>TGDD</t>
+          <t>Tiki</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SP92</t>
+          <t>SP94</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>9.124292983604042e+18</v>
+        <v>278237932</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>realme Note 70 4GB/64GBMẫu mới</t>
+          <t>Điện thoại Xiaomi Redmi 14C - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -22000,41 +22000,41 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>3090000</v>
+        <v>2410000</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>Điện_thoại/9124292983604041560_-3709624913179203087.jpg</t>
+          <t>Điện_thoại/278237932_-975695080881447204.jpg</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>https://cdnv2.tgdd.vn/mwg-static/tgdd/Products/Images/42/340260/realme-note-70-4gb-64gb-160725-095001-095-600x600.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/17/8d/a6bf2619bcaaf1be283640600ad927e3.jpg</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dtdd/realme-note-70-4gb-64gb</t>
+          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-14c-hang-chinh-hang-p278237932.html?spid=278237941</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>TGDD</t>
+          <t>Tiki</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SP93</t>
+          <t>SP95</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>273258825</v>
+        <v>272273680</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A05s (4GB/128GB) - Đã kích hoạt bảo hành điện tử - Hàng chính hãng</t>
+          <t>Điện thoại Samsung Galaxy A05s (4GB/128GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -22047,17 +22047,17 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>Điện_thoại/273258825_-1174226127386122732.jpg</t>
+          <t>Điện_thoại/272273680_3158926263406317588.jpg</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/44/a2/f8/768771540cb86d9b1a7be98e9ab8d025.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/37/10/2d/b0fb37e82d325ca354cd72c5fa7570be.jpg</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a05s-4gb-128gb-da-kich-hoat-bao-hanh-dien-tu-hang-chinh-hang-p273258825.html?spid=273550760</t>
+          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a05s-4gb-128gb-hang-chinh-hang-p272273680.html?spid=273550658</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -22069,15 +22069,15 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SP94</t>
+          <t>SP96</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>278237932</v>
+        <v>271954384</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Điện thoại Xiaomi Redmi 14C - Hàng chính hãng</t>
+          <t>Điện thoại OPPO A58 6GB/128GB , Sạc nhanh 33W - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -22086,21 +22086,21 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>2410000</v>
+        <v>4990000</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>Điện_thoại/278237932_-975695080881447204.jpg</t>
+          <t>Điện_thoại/271954384_-602644343613936311.jpg</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/17/8d/a6bf2619bcaaf1be283640600ad927e3.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8c/80/88/c83c3f2fe6281a892666b5d3b3a0b963.jpg</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-xiaomi-redmi-14c-hang-chinh-hang-p278237932.html?spid=278237941</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-sac-nhanh-33w-hang-chinh-hang-p271954384.html?spid=271954388</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -22112,15 +22112,15 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SP95</t>
+          <t>SP97</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>272273680</v>
+        <v>271235147</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Điện thoại Samsung Galaxy A05s (4GB/128GB) - Hàng chính hãng</t>
+          <t>Điện thoại Oppo A58 (6GB/128GB) - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -22129,21 +22129,21 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>3625000</v>
+        <v>3769000</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>Điện_thoại/272273680_3158926263406317588.jpg</t>
+          <t>Điện_thoại/271235147_-1906447749772517761.jpg</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/37/10/2d/b0fb37e82d325ca354cd72c5fa7570be.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d9/2d/f1/b81a25a252eedd3cb283e93549851b32.jpg</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-samsung-galaxy-a05s-4gb-128gb-hang-chinh-hang-p272273680.html?spid=273550658</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-hang-chinh-hang-p271235147.html?spid=271235149</t>
         </is>
       </c>
       <c r="I505" t="inlineStr">
@@ -22155,15 +22155,15 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SP96</t>
+          <t>SP98</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>271954384</v>
+        <v>271128271</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Điện thoại OPPO A58 6GB/128GB , Sạc nhanh 33W - Hàng Chính Hãng</t>
+          <t>Điện Thoại Oppo A58 6GB/128GB - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -22172,21 +22172,21 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>4990000</v>
+        <v>3699000</v>
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>Điện_thoại/271954384_-602644343613936311.jpg</t>
+          <t>Điện_thoại/271128271_-6190250183295484495.jpg</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/8c/80/88/c83c3f2fe6281a892666b5d3b3a0b963.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/82/d3/9bb25806d67aeb8ff3d583bcce9442e6.jpg</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-sac-nhanh-33w-hang-chinh-hang-p271954384.html?spid=271954388</t>
+          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-hang-chinh-hang-p271128271.html?spid=271128275</t>
         </is>
       </c>
       <c r="I506" t="inlineStr">
@@ -22198,81 +22198,81 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SP97</t>
+          <t>SW01</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>271235147</v>
+        <v>2.393612431018261e+17</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Điện thoại Oppo A58 (6GB/128GB) - Hàng chính hãng</t>
+          <t>Đồng hồ thông minh Samsung Galaxy Watch 6 dành cho nam 2023 có theo dõi  Amoled Luôn hiển thị nhịp tim &amp; theo dõi huyết áp Dây thép không gỉ</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Điện thoại</t>
+          <t>Đồng hồ thông minh</t>
         </is>
       </c>
       <c r="E507" t="n">
-        <v>3769000</v>
+        <v>796868</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>Điện_thoại/271235147_-1906447749772517761.jpg</t>
+          <t>Đồng_hồ_thông_minh/239361243101826085_9199338627928130607.avi</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/d9/2d/f1/b81a25a252eedd3cb283e93549851b32.jpg</t>
+          <t>https://img.lazcdn.com/g/p/dd15cd3a788bf146d858e79fb05dd32a.png_200x200q80.avif</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-hang-chinh-hang-p271235147.html?spid=271235149</t>
+          <t>https://www.lazada.vn/products/pdp-i3013676188.html</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>Lazada</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SP98</t>
+          <t>SW02</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>271128271</v>
+        <v>154835064</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Điện Thoại Oppo A58 6GB/128GB - Hàng Chính Hãng</t>
+          <t>Đồng hồ Thông minh Trẻ em AMA Watch Q15 lắp SIM nghe gọi 2 chiều 3 màu Xanh Hồng Đen Hàng chinh hãng</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Điện thoại</t>
+          <t>Đồng hồ thông minh</t>
         </is>
       </c>
       <c r="E508" t="n">
-        <v>3699000</v>
+        <v>371000</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>Điện_thoại/271128271_-6190250183295484495.jpg</t>
+          <t>Đồng_hồ_thông_minh/154835064_7967125795428827099.jpg</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/ce/82/d3/9bb25806d67aeb8ff3d583bcce9442e6.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4f/a0/c2/c978a931be8bc02a10e4d7058ea72210.jpg</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dien-thoai-oppo-a58-6gb-128gb-hang-chinh-hang-p271128271.html?spid=271128275</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q15-lap-sim-nghe-goi-2-chieu-3-mau-xanh-hong-den-hang-chinh-hang-p154835064.html?spid=154835066</t>
         </is>
       </c>
       <c r="I508" t="inlineStr">
@@ -22284,15 +22284,15 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SW01</t>
+          <t>SW03</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>2.393612431018261e+17</v>
+        <v>149797747</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh Samsung Galaxy Watch 6 dành cho nam 2023 có theo dõi  Amoled Luôn hiển thị nhịp tim &amp; theo dõi huyết áp Dây thép không gỉ</t>
+          <t xml:space="preserve"> Đồng Hồ Thông Minh Trẻ em AMA Q12S Model mới nhất ra mắt tháng 12/2021 - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -22301,41 +22301,41 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>796868</v>
+        <v>562000</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/239361243101826085_9199338627928130607.avi</t>
+          <t>Đồng_hồ_thông_minh/149797747_4683621684182599073.jpg</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>https://img.lazcdn.com/g/p/dd15cd3a788bf146d858e79fb05dd32a.png_200x200q80.avif</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6e/b8/a5/a8820ac9fb55d23011ea48b6e69e74fb.jpg</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>https://www.lazada.vn/products/pdp-i3013676188.html</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-q12s-model-2021-hang-nhap-khau-p149797747.html?spid=151619450</t>
         </is>
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>Lazada</t>
+          <t>Tiki</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SW02</t>
+          <t>SW04</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>154835064</v>
+        <v>207270188</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Đồng hồ Thông minh Trẻ em AMA Watch Q15 lắp SIM nghe gọi 2 chiều 3 màu Xanh Hồng Đen Hàng chinh hãng</t>
+          <t>Đồng hồ Thông minh Mini có Rung Gắn sim Định vị GPS, Wifi Đo huyết áp Nhịp tim nhắc nhở Vận động gọi Video call AMA Watch FA91S - Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -22344,21 +22344,21 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>371000</v>
+        <v>1523870</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/154835064_7967125795428827099.jpg</t>
+          <t>Đồng_hồ_thông_minh/207270188_-6100385475971697174.jpg</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4f/a0/c2/c978a931be8bc02a10e4d7058ea72210.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4e/e3/0f/11c0588e2feb3dc5043b96a6adbba6eb.jpg</t>
         </is>
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q15-lap-sim-nghe-goi-2-chieu-3-mau-xanh-hong-den-hang-chinh-hang-p154835064.html?spid=154835066</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-hoc-sinh-sinh-vien-dinh-vi-wifi-goi-dien-thoai-video-call-ama-watch-fa91-hang-nhap-khau-p207270188.html?spid=208054739</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -22370,15 +22370,15 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SW03</t>
+          <t>SW05</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>149797747</v>
+        <v>276295047</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Đồng Hồ Thông Minh Trẻ em AMA Q12S Model mới nhất ra mắt tháng 12/2021 - Hàng nhập khẩu</t>
+          <t>Đồng Hồ Thông Minh Xiaomi Redmi Watch 5 ACTIVE – Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -22387,21 +22387,21 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>562000</v>
+        <v>715000</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/149797747_4683621684182599073.jpg</t>
+          <t>Đồng_hồ_thông_minh/276295047_4908797466075377767.jpg</t>
         </is>
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/6e/b8/a5/a8820ac9fb55d23011ea48b6e69e74fb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4a/62/9d/b83f4513fcfbfdbc3e35989eb2080281.jpg</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-q12s-model-2021-hang-nhap-khau-p149797747.html?spid=151619450</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-xiaomi-redmi-watch-5-active-midnight-black-hang-chinh-hang-p276295047.html?spid=276295049</t>
         </is>
       </c>
       <c r="I511" t="inlineStr">
@@ -22413,15 +22413,15 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>SW04</t>
+          <t>SW06</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>207270188</v>
+        <v>276130067</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Đồng hồ Thông minh Mini có Rung Gắn sim Định vị GPS, Wifi Đo huyết áp Nhịp tim nhắc nhở Vận động gọi Video call AMA Watch FA91S - Hàng nhập khẩu</t>
+          <t>Vòng Đeo Tay Thông Minh Xiaomi Mi Band 10 - Bản Quốc Tế - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -22430,21 +22430,21 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1523870</v>
+        <v>1033050</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/207270188_-6100385475971697174.jpg</t>
+          <t>Đồng_hồ_thông_minh/276130067_-7228020809596367073.jpg</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4e/e3/0f/11c0588e2feb3dc5043b96a6adbba6eb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/80/f6/73/f8a7c3a0a56618abfe4652893c30b05d.jpg</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-hoc-sinh-sinh-vien-dinh-vi-wifi-goi-dien-thoai-video-call-ama-watch-fa91-hang-nhap-khau-p207270188.html?spid=208054739</t>
+          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-mi-band-9-ban-quoc-te-hang-chinh-hang-p276130067.html?spid=276130069</t>
         </is>
       </c>
       <c r="I512" t="inlineStr">
@@ -22456,15 +22456,15 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>SW05</t>
+          <t>SW07</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>276295047</v>
+        <v>275281412</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Đồng Hồ Thông Minh Xiaomi Redmi Watch 5 ACTIVE – Hàng Chính Hãng</t>
+          <t>Đồng Hồ Thông Minh Trẻ Em MAI DUY Y85S, Lắp Sim Nghe Gọi - Định Vị Cảnh Báo Nguy Hiểm, Chống Nước  -Hàng Nhập Khẩu</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -22473,21 +22473,21 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>715000</v>
+        <v>325000</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276295047_4908797466075377767.jpg</t>
+          <t>Đồng_hồ_thông_minh/275281412_8288843787915995951.jpg</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/4a/62/9d/b83f4513fcfbfdbc3e35989eb2080281.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/26/6e/13/2bf1e724903a941e9f1af13057fb0993.jpg</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-xiaomi-redmi-watch-5-active-midnight-black-hang-chinh-hang-p276295047.html?spid=276295049</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-dinh-vi-tre-em-mai-duy-y85s-nghe-goi-nhan-tin-tu-xa-chong-nuoc-ip67-hang-nhap-khau-p275281412.html?spid=275281467</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -22499,15 +22499,15 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SW06</t>
+          <t>SW08</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>276130067</v>
+        <v>276664710</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Vòng Đeo Tay Thông Minh Xiaomi Mi Band 10 - Bản Quốc Tế - Hàng Chính Hãng</t>
+          <t>Vòng Đeo Tay Thông Minh Xiaomi Smart Band 9 Active – Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -22516,21 +22516,21 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1033050</v>
+        <v>525000</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276130067_-7228020809596367073.jpg</t>
+          <t>Đồng_hồ_thông_minh/276664710_-9198799680277359363.jpg</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/80/f6/73/f8a7c3a0a56618abfe4652893c30b05d.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/50/18/56affe593feb1d3babcccad756a143fb.jpg</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-mi-band-9-ban-quoc-te-hang-chinh-hang-p276130067.html?spid=276130069</t>
+          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-smart-band-9-active-hang-chinh-hang-p276664710.html?spid=276664712</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
@@ -22542,15 +22542,15 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SW07</t>
+          <t>SW09</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>275281412</v>
+        <v>276115570</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Đồng Hồ Thông Minh Trẻ Em MAI DUY Y85S, Lắp Sim Nghe Gọi - Định Vị Cảnh Báo Nguy Hiểm, Chống Nước  -Hàng Nhập Khẩu</t>
+          <t>Apple Watch Series 10 GPS (Viền nhôm, dây cao su)</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -22559,21 +22559,21 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>325000</v>
+        <v>8760000</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/275281412_8288843787915995951.jpg</t>
+          <t>Đồng_hồ_thông_minh/276115570_-6212342290080913237.jpg</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/26/6e/13/2bf1e724903a941e9f1af13057fb0993.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a8/a3/9a/e1bb7178418877ba332bd7c01b90b479.jpg</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-dinh-vi-tre-em-mai-duy-y85s-nghe-goi-nhan-tin-tu-xa-chong-nuoc-ip67-hang-nhap-khau-p275281412.html?spid=275281467</t>
+          <t>https://tiki.vn/apple-watch-series-10-gps-vien-nhom-day-cao-su-p276115570.html?spid=276116452</t>
         </is>
       </c>
       <c r="I515" t="inlineStr">
@@ -22585,15 +22585,15 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SW08</t>
+          <t>SW10</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>276664710</v>
+        <v>276115522</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Vòng Đeo Tay Thông Minh Xiaomi Smart Band 9 Active – Hàng Chính Hãng</t>
+          <t>Apple Watch SE 2024 GPS (Viền nhôm, dây cao su)</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -22602,21 +22602,21 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>525000</v>
+        <v>6360000</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276664710_-9198799680277359363.jpg</t>
+          <t>Đồng_hồ_thông_minh/276115522_1369627001624235375.jpg</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/94/50/18/56affe593feb1d3babcccad756a143fb.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/ec/7d/de5a49dc09126ff6153b16bbb82ee814.jpg</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>https://tiki.vn/vong-deo-tay-thong-minh-xiaomi-smart-band-9-active-hang-chinh-hang-p276664710.html?spid=276664712</t>
+          <t>https://tiki.vn/apple-watch-se-2024-gps-vien-nhom-day-cao-su-p276115522.html?spid=276115846</t>
         </is>
       </c>
       <c r="I516" t="inlineStr">
@@ -22628,15 +22628,15 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SW09</t>
+          <t>SW11</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>276115570</v>
+        <v>273936761</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Apple Watch Series 10 GPS (Viền nhôm, dây cao su)</t>
+          <t>Đồng hồ Thông minh Trẻ em Học sinh Tiểu học THCS THPT Chống nước Lắp sim Định vị Kép Smart Watch AMA HW13 Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -22645,21 +22645,21 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>8760000</v>
+        <v>1096391</v>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276115570_-6212342290080913237.jpg</t>
+          <t>Đồng_hồ_thông_minh/273936761_-8735126153505365997.jpg</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/a8/a3/9a/e1bb7178418877ba332bd7c01b90b479.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/79/06/db/de657748b73e722d01b96d126297833e.jpg</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-watch-series-10-gps-vien-nhom-day-cao-su-p276115570.html?spid=276116452</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-hoc-sinh-tieu-hoc-thcs-thpt-chong-nuoc-lap-sim-dinh-vi-kep-smart-watch-ama-hw13-hang-nhap-khau-p273936761.html?spid=273936763</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
@@ -22671,15 +22671,15 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SW10</t>
+          <t>SW12</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>276115522</v>
+        <v>273690198</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>Apple Watch SE 2024 GPS (Viền nhôm, dây cao su)</t>
+          <t>Đồng hồ Thông minh Lắp Sim Định vị GPS Google kết nối Wifi 4G Blueltooth xem được Video Youtube TikTok tải App FB Messenger Skype WhatsApp Viber Wechat Kakao Line Tele chơi Game AMA Smart watch TK Android 8.1 cho Trẻ em Người lớn Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -22688,21 +22688,21 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>6360000</v>
+        <v>1620870</v>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/276115522_1369627001624235375.jpg</t>
+          <t>Đồng_hồ_thông_minh/273690198_9168548247674116842.jpg</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/32/ec/7d/de5a49dc09126ff6153b16bbb82ee814.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/82/81/b64f1908940da2db9b94abff5939fad4.jpg</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>https://tiki.vn/apple-watch-se-2024-gps-vien-nhom-day-cao-su-p276115522.html?spid=276115846</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-lap-sim-ket-noi-wifi-4g-blueltooth-dinh-vi-gps-google-xem-duoc-video-youtube-tiktok-tai-app-chat-za-lo-face-book-messenger-skype-whatsapp-viber-wechat-kakao-line-tele-choi-game-ama-smart-watch-tk-android-8-1-cho-tre-em-hang-nhap-khau-p273690198.html?spid=273690200</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -22714,15 +22714,15 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SW11</t>
+          <t>SW13</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>273936761</v>
+        <v>9.186353276265624e+18</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Đồng hồ Thông minh Trẻ em Học sinh Tiểu học THCS THPT Chống nước Lắp sim Định vị Kép Smart Watch AMA HW13 Hàng nhập khẩu</t>
+          <t>Samsung Galaxy Watch Ultra LTE 47mm (2025) dây silicone</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -22731,41 +22731,41 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1096391</v>
+        <v>16990000</v>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/273936761_-8735126153505365997.jpg</t>
+          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/79/06/db/de657748b73e722d01b96d126297833e.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-hoc-sinh-tieu-hoc-thcs-thpt-chong-nuoc-lap-sim-dinh-vi-kep-smart-watch-ama-hw13-hang-nhap-khau-p273936761.html?spid=273936763</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SW12</t>
+          <t>SW14</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>273690198</v>
+        <v>8.989072603909606e+18</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Đồng hồ Thông minh Lắp Sim Định vị GPS Google kết nối Wifi 4G Blueltooth xem được Video Youtube TikTok tải App FB Messenger Skype WhatsApp Viber Wechat Kakao Line Tele chơi Game AMA Smart watch TK Android 8.1 cho Trẻ em Người lớn Hàng nhập khẩu</t>
+          <t>Garmin Forerunner 570 47mm dây silicone</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -22774,41 +22774,41 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1620870</v>
+        <v>14420000</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/273690198_9168548247674116842.jpg</t>
+          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/82/81/b64f1908940da2db9b94abff5939fad4.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-lap-sim-ket-noi-wifi-4g-blueltooth-dinh-vi-gps-google-xem-duoc-video-youtube-tiktok-tai-app-chat-za-lo-face-book-messenger-skype-whatsapp-viber-wechat-kakao-line-tele-choi-game-ama-smart-watch-tk-android-8-1-cho-tre-em-hang-nhap-khau-p273690198.html?spid=273690200</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
         </is>
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>SW13</t>
+          <t>SW15</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>9.186353276265624e+18</v>
+        <v>2.067984039751481e+18</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch Ultra LTE 47mm (2025) dây silicone</t>
+          <t>Amazfit Active 2 Square Sapphire 43.3mm dây daMẫu mới</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -22817,21 +22817,21 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>16990000</v>
+        <v>3690000</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
+          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
@@ -22843,15 +22843,15 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>SW14</t>
+          <t>SW16</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>8.989072603909606e+18</v>
+        <v>4.510275253775064e+18</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 47mm dây silicone</t>
+          <t>Garmin Forerunner 570 42.4mm dây silicone</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -22864,17 +22864,17 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
+          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
         </is>
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -22886,15 +22886,15 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>SW15</t>
+          <t>SW17</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>2.067984039751481e+18</v>
+        <v>9.186353276265624e+18</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Amazfit Active 2 Square Sapphire 43.3mm dây daMẫu mới</t>
+          <t>Samsung Galaxy Watch Ultra LTE 47mm (2025) dây silicone</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -22903,21 +22903,21 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>3690000</v>
+        <v>16990000</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
+          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -22929,15 +22929,15 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SW16</t>
+          <t>SW18</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>4.510275253775064e+18</v>
+        <v>5.366895306400635e+18</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 42.4mm dây silicone</t>
+          <t>Huawei Watch 5 46mm dây cao su</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -22946,21 +22946,21 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>14420000</v>
+        <v>8830000</v>
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
+          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -22972,15 +22972,15 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SW17</t>
+          <t>SW19</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>9.186353276265624e+18</v>
+        <v>1.676033394735769e+18</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch Ultra LTE 47mm (2025) dây silicone</t>
+          <t>Samsung Galaxy Watch8 LTE 40mm dây siliconeMẫu mới</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -22989,21 +22989,21 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>16990000</v>
+        <v>9990000</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/9186353276265623657_-6670679368770528653.jpg</t>
+          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338267/galaxy-watch-ultra-2025-xanh-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch-ultra-2025</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -23015,15 +23015,15 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>SW18</t>
+          <t>SW20</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>5.366895306400635e+18</v>
+        <v>1.65783369162941e+18</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây cao su</t>
+          <t>Garmin Venu X1 Sapphire 51.2mm dây nylonMẫu mới</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -23032,21 +23032,21 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>8830000</v>
+        <v>21090000</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
+          <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -23058,15 +23058,15 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SW19</t>
+          <t>SW21</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>1.676033394735769e+18</v>
+        <v>8.989072603909606e+18</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch8 LTE 40mm dây siliconeMẫu mới</t>
+          <t>Garmin Forerunner 570 47mm dây silicone</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -23075,21 +23075,21 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>9990000</v>
+        <v>14420000</v>
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
+          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
         </is>
       </c>
       <c r="I527" t="inlineStr">
@@ -23101,15 +23101,15 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SW20</t>
+          <t>SW22</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1.65783369162941e+18</v>
+        <v>2.067984039751481e+18</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Garmin Venu X1 Sapphire 51.2mm dây nylonMẫu mới</t>
+          <t>Amazfit Active 2 Square Sapphire 43.3mm dây daMẫu mới</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -23118,21 +23118,21 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>21090000</v>
+        <v>3690000</v>
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
+          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -23144,15 +23144,15 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SW21</t>
+          <t>SW23</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>8.989072603909606e+18</v>
+        <v>4.510275253775064e+18</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 47mm dây silicone</t>
+          <t>Garmin Forerunner 570 42.4mm dây silicone</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -23165,17 +23165,17 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/8989072603909606547_550471934263664224.jpg</t>
+          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338701/garmin-forerunner-570-47mm-trang-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570-47mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -23187,15 +23187,15 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SW22</t>
+          <t>SW24</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>2.067984039751481e+18</v>
+        <v>6.907835202262853e+18</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Amazfit Active 2 Square Sapphire 43.3mm dây daMẫu mới</t>
+          <t>Huawei Watch 5 46mm dây compositeMẫu mới</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -23204,21 +23204,21 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>3690000</v>
+        <v>9810000</v>
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/2067984039751480551_6352363833368819501.jpg</t>
+          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340844/amazfit-active-2-square-sapphire-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/amazfit-active-2-square-sapphire</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -23230,15 +23230,15 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SW23</t>
+          <t>SW25</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>4.510275253775064e+18</v>
+        <v>229765302</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Garmin Forerunner 570 42.4mm dây silicone</t>
+          <t>Đồng Hồ Thông Minh Trẻ Em AMA Watch Q12B Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -23247,41 +23247,41 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>14420000</v>
+        <v>195000</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/4510275253775064055_5177601662318078006.jpg</t>
+          <t>Đồng_hồ_thông_minh/229765302_-3877597272443373168.jpg</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/338699/garmin-forerunner-570-den-600x600.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/d3/4b/113da997583503fc0365000da880c475.jpg</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-forerunner-570</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q12b-hang-nhap-khau-p229765302.html?spid=229765304</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>TGDD</t>
+          <t>Tiki</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SW24</t>
+          <t>SW26</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>6.907835202262853e+18</v>
+        <v>212142932</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây compositeMẫu mới</t>
+          <t>Đồng hồ Thông minh gắn Sim nghe gọi Chống nước IP67 Gọi Video call Định vị GPS, WIfi dàn cho Trẻ em học sinh cấp 1 2 5 6 7 8 9 10 11 12 tuổi AMA Watch D32 Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -23290,41 +23290,41 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9810000</v>
+        <v>1244510</v>
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
+          <t>Đồng_hồ_thông_minh/212142932_4862266102186728546.jpg</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/08/d0/5c2503b74acf53d8eeff0a6684aaa108.jpg</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-trai-gai-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-chong-nuoc-ip67-goi-video-call-dinh-vi-gps-wifi-ama-watch-d32-hang-nhap-khau-p212142932.html?spid=212142936</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>TGDD</t>
+          <t>Tiki</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>SW25</t>
+          <t>SW27</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>229765302</v>
+        <v>198515846</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Đồng Hồ Thông Minh Trẻ Em AMA Watch Q12B Hàng nhập khẩu</t>
+          <t>Đồng Hồ Định Vị Trẻ Em Wonlex KT18 - Hàng Chính Hãng</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -23333,21 +23333,21 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>195000</v>
+        <v>1833300</v>
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/229765302_-3877597272443373168.jpg</t>
+          <t>Đồng_hồ_thông_minh/198515846_-1573833554464561456.png</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/3c/d3/4b/113da997583503fc0365000da880c475.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/66/7f/752b916f89fc61763fcf18dc6ea76874.png</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-ama-watch-q12b-hang-nhap-khau-p229765302.html?spid=229765304</t>
+          <t>https://tiki.vn/dong-ho-dinh-vi-kt18-chinh-hang-wonlex-p198515846.html?spid=198515848</t>
         </is>
       </c>
       <c r="I533" t="inlineStr">
@@ -23359,15 +23359,15 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>SW26</t>
+          <t>SW28</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>212142932</v>
+        <v>196516091</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Đồng hồ Thông minh gắn Sim nghe gọi Chống nước IP67 Gọi Video call Định vị GPS, WIfi dàn cho Trẻ em học sinh cấp 1 2 5 6 7 8 9 10 11 12 tuổi AMA Watch D32 Hàng nhập khẩu</t>
+          <t>Đồng hồ thông minh Samsung Galaxy Watch5 40mm SM-R900N - Hàng chính hãng</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -23376,21 +23376,21 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1244510</v>
+        <v>2890600</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/212142932_4862266102186728546.jpg</t>
+          <t>Đồng_hồ_thông_minh/196516091_-110608113805442775.jpg</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/b6/08/d0/5c2503b74acf53d8eeff0a6684aaa108.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9c/4b/3b/39c1ef7bf5f1cfb5ce79f44c744a73d5.jpg</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-trai-gai-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-chong-nuoc-ip67-goi-video-call-dinh-vi-gps-wifi-ama-watch-d32-hang-nhap-khau-p212142932.html?spid=212142936</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-samsung-galaxy-watch5-40mm-sm-r900n-hang-chinh-hang-p196516091.html?spid=196516093</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -23402,15 +23402,15 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>SW27</t>
+          <t>SW29</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>198515846</v>
+        <v>192977208</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Đồng Hồ Định Vị Trẻ Em Wonlex KT18 - Hàng Chính Hãng</t>
+          <t>Đồng hồ Thông minh Chống nước IP67 Dành cho Trẻ em nhuẩn AMA Watch Q16S Hàng chính hãng</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -23419,21 +23419,21 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1833300</v>
+        <v>366000</v>
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/198515846_-1573833554464561456.png</t>
+          <t>Đồng_hồ_thông_minh/192977208_-1295276845238255977.jpg</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/99/66/7f/752b916f89fc61763fcf18dc6ea76874.png</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/85/2c/82/084299fa304692f7dbdc403ced19c368.jpg</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-dinh-vi-kt18-chinh-hang-wonlex-p198515846.html?spid=198515848</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-chong-nuoc-chuan-ip67-ama-watch-q16s-hang-chinh-hang-p192977208.html?spid=193710183</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -23445,15 +23445,15 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>SW28</t>
+          <t>SW30</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>196516091</v>
+        <v>112287571</v>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Đồng hồ thông minh Samsung Galaxy Watch5 40mm SM-R900N - Hàng chính hãng</t>
+          <t>Đồng Hồ Thông Minh cho Trẻ em 6 tuổi, 7 tuổi, 8 tuổi, 9 tuổi, 10 tuổi, 11 tuổi Lắp Sim Độc lập nghe gọi 2 chiều AMA Watch Y92 Chống nước Định vị Wifi độ chính xác cao Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -23462,21 +23462,21 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>2890600</v>
+        <v>591361</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/196516091_-110608113805442775.jpg</t>
+          <t>Đồng_hồ_thông_minh/112287571_-6014313050433431973.jpg</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/9c/4b/3b/39c1ef7bf5f1cfb5ce79f44c744a73d5.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/55/38/64/d6e65ca4c3c52cf8994c77c4af5ec993.jpg</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-samsung-galaxy-watch5-40mm-sm-r900n-hang-chinh-hang-p196516091.html?spid=196516093</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-lap-sim-doc-lap-nghe-goi-2-chieu-ama-watch-y92-chong-nuoc-dinh-vi-wifi-do-chinh-xac-cao-hang-nhap-khau-p112287571.html?spid=112287573</t>
         </is>
       </c>
       <c r="I536" t="inlineStr">
@@ -23488,15 +23488,15 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>SW29</t>
+          <t>SW31</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>192977208</v>
+        <v>94304443</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Đồng hồ Thông minh Chống nước IP67 Dành cho Trẻ em nhuẩn AMA Watch Q16S Hàng chính hãng</t>
+          <t>Đồng Hồ Thông Minh AMA Watch Nam Nữ chống nước | Gọi điện thoại Xem tin nhắn Theo dõi Sức khỏe vận động Thiết kế nhỏ gọn Thời trang Hàng nhập khẩu</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -23505,21 +23505,21 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>366000</v>
+        <v>1079804</v>
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/192977208_-1295276845238255977.jpg</t>
+          <t>Đồng_hồ_thông_minh/94304443_-1525890213333033887.jpg</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/85/2c/82/084299fa304692f7dbdc403ced19c368.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/d4/d2/f7eae7468d71bad8f3a2c606cc3fcd79.jpg</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-tre-em-chong-nuoc-chuan-ip67-ama-watch-q16s-hang-chinh-hang-p192977208.html?spid=193710183</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-ama-watch-nam-nu-chong-nuoc-goi-dien-thoai-xem-tin-nhan-theo-doi-suc-khoe-van-dong-thiet-ke-nho-gon-thoi-trang-hang-nhap-khau-p94304443.html?spid=94304447</t>
         </is>
       </c>
       <c r="I537" t="inlineStr">
@@ -23531,15 +23531,15 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>SW30</t>
+          <t>SW32</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>112287571</v>
+        <v>74215680</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Đồng Hồ Thông Minh cho Trẻ em 6 tuổi, 7 tuổi, 8 tuổi, 9 tuổi, 10 tuổi, 11 tuổi Lắp Sim Độc lập nghe gọi 2 chiều AMA Watch Y92 Chống nước Định vị Wifi độ chính xác cao Hàng nhập khẩu</t>
+          <t>Đồng Hồ Thông Minh Nữ AMA Watch S27 Thời trang Kết nối Bluetooth Theo dõi Sức khỏe Vận động Màn hình tròn Hàng chính hãng</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -23548,21 +23548,21 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>591361</v>
+        <v>1471490</v>
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/112287571_-6014313050433431973.jpg</t>
+          <t>Đồng_hồ_thông_minh/74215680_-5502139735237341598.png</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/55/38/64/d6e65ca4c3c52cf8994c77c4af5ec993.jpg</t>
+          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/b3/74/7155e36ba130c0b68d6bdd6a327aa582.png</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-cho-tre-em-6-tuoi-7-tuoi-8-tuoi-9-tuoi-10-tuoi-11-tuoi-lap-sim-doc-lap-nghe-goi-2-chieu-ama-watch-y92-chong-nuoc-dinh-vi-wifi-do-chinh-xac-cao-hang-nhap-khau-p112287571.html?spid=112287573</t>
+          <t>https://tiki.vn/dong-ho-thong-minh-nu-ama-watch-s27-thoi-trang-ket-noi-bluetooth-theo-doi-suc-khoe-van-dong-man-hinh-tron-hang-chinh-hang-p74215680.html?spid=75434136</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -23574,15 +23574,15 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>SW31</t>
+          <t>SW33</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>94304443</v>
+        <v>5.366895306400635e+18</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Đồng Hồ Thông Minh AMA Watch Nam Nữ chống nước | Gọi điện thoại Xem tin nhắn Theo dõi Sức khỏe vận động Thiết kế nhỏ gọn Thời trang Hàng nhập khẩu</t>
+          <t>Huawei Watch 5 46mm dây cao su</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -23591,41 +23591,41 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1079804</v>
+        <v>8830000</v>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/94304443_-1525890213333033887.jpg</t>
+          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/60/d4/d2/f7eae7468d71bad8f3a2c606cc3fcd79.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-ama-watch-nam-nu-chong-nuoc-goi-dien-thoai-xem-tin-nhan-theo-doi-suc-khoe-van-dong-thiet-ke-nho-gon-thoi-trang-hang-nhap-khau-p94304443.html?spid=94304447</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SW32</t>
+          <t>SW34</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>74215680</v>
+        <v>1.676033394735769e+18</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Đồng Hồ Thông Minh Nữ AMA Watch S27 Thời trang Kết nối Bluetooth Theo dõi Sức khỏe Vận động Màn hình tròn Hàng chính hãng</t>
+          <t>Samsung Galaxy Watch8 LTE 40mm dây siliconeMẫu mới</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -23634,41 +23634,41 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1471490</v>
+        <v>9990000</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/74215680_-5502139735237341598.png</t>
+          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>https://salt.tikicdn.com/cache/280x280/ts/product/0f/b3/74/7155e36ba130c0b68d6bdd6a327aa582.png</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>https://tiki.vn/dong-ho-thong-minh-nu-ama-watch-s27-thoi-trang-ket-noi-bluetooth-theo-doi-suc-khoe-van-dong-man-hinh-tron-hang-chinh-hang-p74215680.html?spid=75434136</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
         </is>
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>Tiki</t>
+          <t>TGDD</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>SW33</t>
+          <t>SW35</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>5.366895306400635e+18</v>
+        <v>6.907835202262853e+18</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Huawei Watch 5 46mm dây cao su</t>
+          <t>Huawei Watch 5 46mm dây compositeMẫu mới</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -23677,21 +23677,21 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>8830000</v>
+        <v>9810000</v>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/5366895306400635230_1808971627055697531.jpg</t>
+          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/337872/huawei-watch-5-46mm-den-tb-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
         </is>
       </c>
       <c r="I541" t="inlineStr">
@@ -23703,15 +23703,15 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>SW34</t>
+          <t>SW36</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>1.676033394735769e+18</v>
+        <v>1.65783369162941e+18</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Samsung Galaxy Watch8 LTE 40mm dây siliconeMẫu mới</t>
+          <t>Garmin Venu X1 Sapphire 51.2mm dây nylonMẫu mới</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -23720,110 +23720,24 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>9990000</v>
+        <v>21090000</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>Đồng_hồ_thông_minh/1676033394735768645_5857290725245800041.jpg</t>
+          <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340066/samsung-galaxy-watch8-lte-40mm-trang-tn-600x600.jpg</t>
+          <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/samsung-galaxy-watch8-lte-40mm</t>
+          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
-        <is>
-          <t>TGDD</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>SW35</t>
-        </is>
-      </c>
-      <c r="B543" t="n">
-        <v>6.907835202262853e+18</v>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>Huawei Watch 5 46mm dây compositeMẫu mới</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>Đồng hồ thông minh</t>
-        </is>
-      </c>
-      <c r="E543" t="n">
-        <v>9810000</v>
-      </c>
-      <c r="F543" t="inlineStr">
-        <is>
-          <t>Đồng_hồ_thông_minh/6907835202262852666_-6919784548807733545.jpg</t>
-        </is>
-      </c>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/339492/huawei-watch-5-46mm-day-composite-tb-600x600.jpg</t>
-        </is>
-      </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/huawei-watch-5-46mm-day-composite</t>
-        </is>
-      </c>
-      <c r="I543" t="inlineStr">
-        <is>
-          <t>TGDD</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>SW36</t>
-        </is>
-      </c>
-      <c r="B544" t="n">
-        <v>1.65783369162941e+18</v>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>Garmin Venu X1 Sapphire 51.2mm dây nylonMẫu mới</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>Đồng hồ thông minh</t>
-        </is>
-      </c>
-      <c r="E544" t="n">
-        <v>21090000</v>
-      </c>
-      <c r="F544" t="inlineStr">
-        <is>
-          <t>Đồng_hồ_thông_minh/1657833691629409441_-3756484674081019100.jpg</t>
-        </is>
-      </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>https://cdn.tgdd.vn/Products/Images/7077/340846/garmin-venu-x1-reu-tb-600x600.jpg</t>
-        </is>
-      </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>https://www.thegioididong.com/dong-ho-thong-minh/garmin-venu-x1-sapphire</t>
-        </is>
-      </c>
-      <c r="I544" t="inlineStr">
         <is>
           <t>TGDD</t>
         </is>
